--- a/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
+++ b/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a00cca614a243a/Dokumenter/SOK - 2014 Kost og nytteanalyse/PO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a00cca614a243a/Dokumenter/SOK - 2014 Kost og nytteanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8F1322-63D7-46FD-8DAE-E2523F7BC7F1}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0B49D5-2924-49D1-8FC9-F03A171754C7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Inndata</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Andre vedlikeholdskostnader</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2 kvoter </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prosjektets levetid </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Anleggsmidler</t>
   </si>
   <si>
@@ -92,24 +86,12 @@
     <t xml:space="preserve">Strømpris </t>
   </si>
   <si>
-    <t>CO2 kvote pris</t>
-  </si>
-  <si>
-    <t>25,93 kr/MMBtu</t>
-  </si>
-  <si>
     <t>0,75 kr/Kwh</t>
   </si>
   <si>
-    <t>Markedspris gass</t>
-  </si>
-  <si>
     <t>Investering i anleggsmiddler</t>
   </si>
   <si>
-    <t>Reduksjon i CO2-utslipp</t>
-  </si>
-  <si>
     <t>Kontantstrøm før skatt</t>
   </si>
   <si>
@@ -117,6 +99,18 @@
   </si>
   <si>
     <t>15 år</t>
+  </si>
+  <si>
+    <t>CO2 kvote pris per tonn</t>
+  </si>
+  <si>
+    <t>Markedspris gass/MMBtu</t>
+  </si>
+  <si>
+    <t>Reduksjon i CO2-utslipp i tonn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besparelser i CO2 kvoter </t>
   </si>
 </sst>
 </file>
@@ -238,6 +232,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F3DA7-FE76-4FF3-BFD4-2A5423F54C1B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,15 +589,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
         <v>1179</v>
@@ -607,10 +605,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25.93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -618,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>550000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -628,7 +626,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>8100000000</v>
@@ -651,8 +649,8 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -670,15 +668,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B3*B5</f>
+        <v>530550000</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
@@ -757,63 +759,63 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" ref="C25:M25" si="4">25.93*$B$16</f>
         <v>183195450</v>
       </c>
       <c r="D25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="E25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="F25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="G25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="H25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="I25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="J25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="K25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="L25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="M25" s="6">
-        <f>25.93*$B$16</f>
+        <f t="shared" si="4"/>
         <v>183195450</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25:P25" si="4">25.93*$B$16</f>
+        <f t="shared" ref="N25:P25" si="5">25.93*$B$16</f>
         <v>183195450</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183195450</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183195450</v>
       </c>
       <c r="Q25" s="6">
@@ -823,127 +825,127 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6">
         <f>$B$5*$B$3</f>
-        <v>648450000</v>
+        <v>530550000</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:Q26" si="5">$B$5*$B$3</f>
-        <v>648450000</v>
+        <f t="shared" ref="D26:Q26" si="6">$B$5*$B$3</f>
+        <v>530550000</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="5"/>
-        <v>648450000</v>
+        <f t="shared" si="6"/>
+        <v>530550000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" ref="C27:M27" si="7">-$B$12</f>
         <v>-571140000</v>
       </c>
       <c r="D27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="E27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="F27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="G27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="H27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="I27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="J27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="K27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="L27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="M27" s="6">
-        <f>-$B$12</f>
+        <f t="shared" si="7"/>
         <v>-571140000</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" ref="N27:P27" si="6">-$B$12</f>
+        <f t="shared" ref="N27:P27" si="8">-$B$12</f>
         <v>-571140000</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-571140000</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-571140000</v>
       </c>
       <c r="Q27" s="6">
@@ -973,73 +975,73 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8">
         <f>SUM(C25:C28)</f>
-        <v>260505450</v>
+        <v>142605450</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" ref="D29:L29" si="7">SUM(D25:D28)</f>
-        <v>260505450</v>
+        <f t="shared" ref="D29:L29" si="9">SUM(D25:D28)</f>
+        <v>142605450</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="7"/>
-        <v>260505450</v>
+        <f t="shared" si="9"/>
+        <v>142605450</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29:N29" si="8">SUM(M25:M28)</f>
-        <v>260505450</v>
+        <f t="shared" ref="M29:N29" si="10">SUM(M25:M28)</f>
+        <v>142605450</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="8"/>
-        <v>260505450</v>
+        <f t="shared" si="10"/>
+        <v>142605450</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" ref="O29:Q29" si="9">SUM(O25:O28)</f>
-        <v>260505450</v>
+        <f t="shared" ref="O29:Q29" si="11">SUM(O25:O28)</f>
+        <v>142605450</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="9"/>
-        <v>260505450</v>
+        <f t="shared" si="11"/>
+        <v>142605450</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="9"/>
-        <v>260505450</v>
+        <f t="shared" si="11"/>
+        <v>142605450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="6">
         <f>-B10</f>
@@ -1063,7 +1065,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B31" s="8">
         <f>SUM(B29:B30)</f>
@@ -1071,81 +1073,81 @@
       </c>
       <c r="C31" s="8">
         <f>SUM(C29:C30)</f>
-        <v>260505450</v>
+        <v>142605450</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" ref="D31:L31" si="10">SUM(D29:D30)</f>
-        <v>260505450</v>
+        <f t="shared" ref="D31:L31" si="12">SUM(D29:D30)</f>
+        <v>142605450</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="10"/>
-        <v>260505450</v>
+        <f t="shared" si="12"/>
+        <v>142605450</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" ref="M31:N31" si="11">SUM(M29:M30)</f>
-        <v>260505450</v>
+        <f t="shared" ref="M31:N31" si="13">SUM(M29:M30)</f>
+        <v>142605450</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="11"/>
-        <v>260505450</v>
+        <f t="shared" si="13"/>
+        <v>142605450</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" ref="O31:Q31" si="12">SUM(O29:O30)</f>
-        <v>260505450</v>
+        <f t="shared" ref="O31:Q31" si="14">SUM(O29:O30)</f>
+        <v>142605450</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="12"/>
-        <v>260505450</v>
+        <f t="shared" si="14"/>
+        <v>142605450</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="12"/>
-        <v>260505450</v>
+        <f t="shared" si="14"/>
+        <v>142605450</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="12">
         <f>NPV(B21,C31:Q31)+B31</f>
-        <v>-5203599478.7087002</v>
+        <v>-6514457356.9613209</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B34" s="11">
         <f>IRR(B31:Q31)</f>
-        <v>-7.9790330061643711E-2</v>
+        <v>-0.13353401762603334</v>
       </c>
     </row>
   </sheetData>

--- a/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
+++ b/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a00cca614a243a/Dokumenter/SOK - 2014 Kost og nytteanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0B49D5-2924-49D1-8FC9-F03A171754C7}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C142D043-A776-49B7-AC56-2C1AD8854E3C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F3DA7-FE76-4FF3-BFD4-2A5423F54C1B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
+++ b/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a00cca614a243a/Dokumenter/SOK - 2014 Kost og nytteanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1407" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C17F05-2B32-41DC-A234-7F222AEC02B6}"/>
+  <xr:revisionPtr revIDLastSave="1519" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BE86FB-2CA2-4438-8634-A0FA000491E2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nettonåverdi" sheetId="1" r:id="rId1"/>
-    <sheet name="Tiltakskostnad" sheetId="2" r:id="rId2"/>
+    <sheet name="Nettonåverdi elektrifisering" sheetId="1" r:id="rId1"/>
+    <sheet name="Null alternativ" sheetId="6" r:id="rId2"/>
     <sheet name="Strøm-pris Lineær Prognose " sheetId="3" r:id="rId3"/>
     <sheet name="Gass-pris lineær prognose " sheetId="4" r:id="rId4"/>
     <sheet name="NOx-pris Lineær prognose" sheetId="5" r:id="rId5"/>
+    <sheet name="Tiltakskostnad" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Inndata</t>
   </si>
@@ -177,10 +178,22 @@
     <t>Pris NOK/kg</t>
   </si>
   <si>
-    <t>Nox-fondet</t>
+    <t>Tilbakebetalingstid</t>
   </si>
   <si>
-    <t>Tilbakebetalingstid</t>
+    <t xml:space="preserve">Notat: Tallene merket i lyse blått er hentet fra stattnett sin langsiktige markedsanalyse. Det er anvendt en lineær prognose for å esitmerer verdiene i mellom disse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notat: Tallene merket i lyse blått er faktiske priser for utslipp av NOx. Det er anvendt en lineær prognose for å estimere verdiene frem til 2055. </t>
+  </si>
+  <si>
+    <t>Støtte fra Nox-fondet</t>
+  </si>
+  <si>
+    <t>Kostnader i CO2 kvoter</t>
+  </si>
+  <si>
+    <t>Kostnader i Nox avgifter</t>
   </si>
 </sst>
 </file>
@@ -310,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -379,10 +392,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F3DA7-FE76-4FF3-BFD4-2A5423F54C1B}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -743,7 +755,7 @@
     <col min="12" max="12" width="18.59765625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="20.73046875" customWidth="1"/>
-    <col min="15" max="15" width="18.265625" customWidth="1"/>
+    <col min="15" max="15" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.796875" customWidth="1"/>
     <col min="17" max="17" width="19.265625" customWidth="1"/>
     <col min="18" max="18" width="20.59765625" customWidth="1"/>
@@ -1854,120 +1866,120 @@
         <v>375623181.69999999</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:AF33" si="21">25.93*$B$7</f>
-        <v>149844755.40739998</v>
+        <f t="shared" ref="D33:AF33" si="21">C17*$B$7</f>
+        <v>375623181.69999999</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="T33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="V33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="W33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="X33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="Z33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="AA33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>375623181.69999999</v>
       </c>
       <c r="AB33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>433411363.5</v>
       </c>
       <c r="AC33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>433411363.5</v>
       </c>
       <c r="AD33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>433411363.5</v>
       </c>
       <c r="AE33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>433411363.5</v>
       </c>
       <c r="AF33" s="4">
         <f t="shared" si="21"/>
-        <v>149844755.40739998</v>
+        <v>433411363.5</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.45">
@@ -1975,11 +1987,11 @@
         <v>7</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" ref="C34:AF34" si="22">$B$5*B11</f>
+        <f>$B$5*B11</f>
         <v>855900000</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="D34:AF34" si="22">$B$5*C11</f>
         <v>951750000</v>
       </c>
       <c r="E34" s="4">
@@ -2344,6 +2356,1981 @@
         <f t="shared" si="24"/>
         <v>-406464000</v>
       </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="6">
+        <f>SUM(C33:C36)</f>
+        <v>643927181.70000005</v>
+      </c>
+      <c r="D37" s="6">
+        <f>SUM(D33:D36)</f>
+        <v>784235781.70000005</v>
+      </c>
+      <c r="E37" s="6">
+        <f>SUM(E33:E36)</f>
+        <v>899410781.70000005</v>
+      </c>
+      <c r="F37" s="6">
+        <f>SUM(F33:F36)</f>
+        <v>917835781.70000005</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>918260781.70000005</v>
+      </c>
+      <c r="H37" s="6">
+        <f>SUM(H33:H36)</f>
+        <v>925460181.70000005</v>
+      </c>
+      <c r="I37" s="6">
+        <f>SUM(I33:I36)</f>
+        <v>960980337.25555563</v>
+      </c>
+      <c r="J37" s="6">
+        <f>SUM(J33:J36)</f>
+        <v>966377562.22830188</v>
+      </c>
+      <c r="K37" s="6">
+        <f>SUM(K33:K36)</f>
+        <v>980930381.70000005</v>
+      </c>
+      <c r="L37" s="6">
+        <f>SUM(L33:L36)</f>
+        <v>996597781.70000005</v>
+      </c>
+      <c r="M37" s="6">
+        <f>SUM(M33:M36)</f>
+        <v>1029201181.7</v>
+      </c>
+      <c r="N37" s="6">
+        <f>SUM(N33:N36)</f>
+        <v>1025794890.477906</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>1038218647.8418024</v>
+      </c>
+      <c r="P37" s="6">
+        <f>SUM(P33:P36)</f>
+        <v>1055040149.8164539</v>
+      </c>
+      <c r="Q37" s="6">
+        <f>SUM(Q33:Q36)</f>
+        <v>1072790882.0231494</v>
+      </c>
+      <c r="R37" s="6">
+        <f>SUM(R33:R36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="S37" s="6">
+        <f>SUM(S33:S36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="T37" s="6">
+        <f>SUM(T33:T36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="U37" s="6">
+        <f>SUM(U33:U36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="V37" s="6">
+        <f>SUM(V33:V36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="W37" s="6">
+        <f>SUM(W33:W36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="X37" s="6">
+        <f>SUM(X33:X36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="Y37" s="6">
+        <f>SUM(Y33:Y36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="Z37" s="6">
+        <f>SUM(Z33:Z36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="AA37" s="6">
+        <f>SUM(AA33:AA36)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="AB37" s="6">
+        <f>SUM(AB33:AB36)</f>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AC37" s="6">
+        <f>SUM(AC33:AC36)</f>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AD37" s="6">
+        <f>SUM(AD33:AD36)</f>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AE37" s="6">
+        <f>SUM(AE33:AE36)</f>
+        <v>1143522363.5</v>
+      </c>
+      <c r="AF37" s="6">
+        <f>SUM(AF33:AF36)</f>
+        <v>1187172363.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4">
+        <v>520000000</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4">
+        <f>-B22</f>
+        <v>-8100000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="6">
+        <f>SUM(B37:B39)</f>
+        <v>-7580000000</v>
+      </c>
+      <c r="C40" s="6">
+        <f>SUM(C37:C39)</f>
+        <v>643927181.70000005</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" ref="D40:L40" si="25">SUM(D37:D39)</f>
+        <v>784235781.70000005</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="25"/>
+        <v>899410781.70000005</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="25"/>
+        <v>917835781.70000005</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="25"/>
+        <v>918260781.70000005</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="25"/>
+        <v>925460181.70000005</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="25"/>
+        <v>960980337.25555563</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="25"/>
+        <v>966377562.22830188</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="25"/>
+        <v>980930381.70000005</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="25"/>
+        <v>996597781.70000005</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" ref="M40:N40" si="26">SUM(M37:M39)</f>
+        <v>1029201181.7</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="26"/>
+        <v>1025794890.477906</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" ref="O40:Q40" si="27">SUM(O37:O39)</f>
+        <v>1038218647.8418024</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="27"/>
+        <v>1055040149.8164539</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="27"/>
+        <v>1072790882.0231494</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" ref="R40:V40" si="28">SUM(R37:R39)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="28"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="28"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="28"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="28"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" ref="W40:AF40" si="29">SUM(W37:W39)</f>
+        <v>1082134181.7</v>
+      </c>
+      <c r="X40" s="6">
+        <f t="shared" si="29"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" si="29"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="Z40" s="6">
+        <f t="shared" si="29"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="AA40" s="6">
+        <f t="shared" si="29"/>
+        <v>1082134181.7</v>
+      </c>
+      <c r="AB40" s="6">
+        <f t="shared" si="29"/>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AC40" s="6">
+        <f t="shared" si="29"/>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AD40" s="6">
+        <f t="shared" si="29"/>
+        <v>1139922363.5</v>
+      </c>
+      <c r="AE40" s="6">
+        <f t="shared" si="29"/>
+        <v>1143522363.5</v>
+      </c>
+      <c r="AF40" s="6">
+        <f t="shared" si="29"/>
+        <v>1187172363.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C40</f>
+        <v>643927181.70000005</v>
+      </c>
+      <c r="D41" s="4">
+        <f>C41+D40</f>
+        <v>1428162963.4000001</v>
+      </c>
+      <c r="E41" s="4">
+        <f>D41+E40</f>
+        <v>2327573745.1000004</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ref="F41:AF41" si="30">E41+F40</f>
+        <v>3245409526.8000002</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="30"/>
+        <v>4163670308.5</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="30"/>
+        <v>5089130490.1999998</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="30"/>
+        <v>6050110827.455555</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="30"/>
+        <v>7016488389.683857</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="30"/>
+        <v>7997418771.3838568</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="30"/>
+        <v>8994016553.0838566</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="30"/>
+        <v>10023217734.783857</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="30"/>
+        <v>11049012625.261763</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="30"/>
+        <v>12087231273.103565</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="30"/>
+        <v>13142271422.920019</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="30"/>
+        <v>14215062304.943169</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="30"/>
+        <v>15297196486.643169</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="30"/>
+        <v>16379330668.34317</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="30"/>
+        <v>17461464850.043171</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="30"/>
+        <v>18543599031.743172</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="30"/>
+        <v>19625733213.443172</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="30"/>
+        <v>20707867395.143173</v>
+      </c>
+      <c r="X41" s="4">
+        <f t="shared" si="30"/>
+        <v>21790001576.843174</v>
+      </c>
+      <c r="Y41" s="4">
+        <f t="shared" si="30"/>
+        <v>22872135758.543175</v>
+      </c>
+      <c r="Z41" s="4">
+        <f t="shared" si="30"/>
+        <v>23954269940.243176</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="30"/>
+        <v>25036404121.943176</v>
+      </c>
+      <c r="AB41" s="4">
+        <f t="shared" si="30"/>
+        <v>26176326485.443176</v>
+      </c>
+      <c r="AC41" s="4">
+        <f t="shared" si="30"/>
+        <v>27316248848.943176</v>
+      </c>
+      <c r="AD41" s="4">
+        <f t="shared" si="30"/>
+        <v>28456171212.443176</v>
+      </c>
+      <c r="AE41" s="4">
+        <f t="shared" si="30"/>
+        <v>29599693575.943176</v>
+      </c>
+      <c r="AF41" s="4">
+        <f t="shared" si="30"/>
+        <v>30786865939.443176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="11">
+        <f>NPV(E2,C40:AF40)+B40</f>
+        <v>9564031197.1472435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="31">
+        <f>IRR(B40:AF40)</f>
+        <v>0.11841700379290909</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="32">
+        <f>(-B40-L41)/M40+L32</f>
+        <v>8.6261028667415331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="15"/>
+      <c r="B52" s="28"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48ED72-E7D4-4B97-8EBC-A6550B96EAB3}">
+  <dimension ref="A1:AF46"/>
+  <sheetViews>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="11" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="32" width="19.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
+        <v>8760</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10">
+        <f>116*B2</f>
+        <v>1016160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="29">
+        <f>B3*1000</f>
+        <v>1016160000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="29">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10">
+        <v>450000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10">
+        <v>850</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5778818.1799999997</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45658</v>
+      </c>
+      <c r="C10" s="19">
+        <v>46023</v>
+      </c>
+      <c r="D10" s="19">
+        <v>46388</v>
+      </c>
+      <c r="E10" s="19">
+        <v>46753</v>
+      </c>
+      <c r="F10" s="19">
+        <v>47119</v>
+      </c>
+      <c r="G10" s="19">
+        <v>47484</v>
+      </c>
+      <c r="H10" s="19">
+        <v>47849</v>
+      </c>
+      <c r="I10" s="19">
+        <v>48214</v>
+      </c>
+      <c r="J10" s="19">
+        <v>48580</v>
+      </c>
+      <c r="K10" s="19">
+        <v>48945</v>
+      </c>
+      <c r="L10" s="19">
+        <v>49310</v>
+      </c>
+      <c r="M10" s="19">
+        <v>49675</v>
+      </c>
+      <c r="N10" s="19">
+        <v>50041</v>
+      </c>
+      <c r="O10" s="19">
+        <v>50406</v>
+      </c>
+      <c r="P10" s="19">
+        <v>50771</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>51136</v>
+      </c>
+      <c r="R10" s="19">
+        <v>51502</v>
+      </c>
+      <c r="S10" s="19">
+        <v>51867</v>
+      </c>
+      <c r="T10" s="19">
+        <v>52232</v>
+      </c>
+      <c r="U10" s="19">
+        <v>52597</v>
+      </c>
+      <c r="V10" s="19">
+        <v>52963</v>
+      </c>
+      <c r="W10" s="19">
+        <v>53328</v>
+      </c>
+      <c r="X10" s="19">
+        <v>53693</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>54058</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>54424</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>54789</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>55154</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>55519</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>55885</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>56250</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1902</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2115</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2370</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="P11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="R11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="S11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="T11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="U11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="V11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="W11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="X11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>2410</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>2418</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>2515</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16">
+        <v>713</v>
+      </c>
+      <c r="C12" s="16">
+        <v>727</v>
+      </c>
+      <c r="D12" s="16">
+        <v>743</v>
+      </c>
+      <c r="E12" s="16">
+        <v>761</v>
+      </c>
+      <c r="F12" s="16">
+        <v>780</v>
+      </c>
+      <c r="G12" s="16">
+        <v>800</v>
+      </c>
+      <c r="H12" s="16">
+        <v>832</v>
+      </c>
+      <c r="I12" s="16">
+        <v>865</v>
+      </c>
+      <c r="J12" s="16">
+        <v>900</v>
+      </c>
+      <c r="K12" s="16">
+        <v>936</v>
+      </c>
+      <c r="L12" s="16">
+        <v>973</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1012</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1052</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1094</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1138</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>1184</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1231</v>
+      </c>
+      <c r="S12" s="16">
+        <v>1280</v>
+      </c>
+      <c r="T12" s="16">
+        <v>1332</v>
+      </c>
+      <c r="U12" s="16">
+        <v>1385</v>
+      </c>
+      <c r="V12" s="16">
+        <v>1440</v>
+      </c>
+      <c r="W12" s="16">
+        <v>1498</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1558</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>1620</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>1685</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>1752</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1822</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>1895</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>1971</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>2050</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="44">
+        <v>2043</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2206</v>
+      </c>
+      <c r="D13" s="36">
+        <v>2382</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2571</v>
+      </c>
+      <c r="F13" s="36">
+        <v>2776</v>
+      </c>
+      <c r="G13" s="35">
+        <v>2997</v>
+      </c>
+      <c r="H13" s="36">
+        <v>3177</v>
+      </c>
+      <c r="I13" s="36">
+        <v>3368</v>
+      </c>
+      <c r="J13" s="36">
+        <v>3571</v>
+      </c>
+      <c r="K13" s="36">
+        <v>3785</v>
+      </c>
+      <c r="L13" s="36">
+        <v>4013</v>
+      </c>
+      <c r="M13" s="36">
+        <v>4254</v>
+      </c>
+      <c r="N13" s="36">
+        <v>4510</v>
+      </c>
+      <c r="O13" s="36">
+        <v>4781</v>
+      </c>
+      <c r="P13" s="36">
+        <v>5068</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>5373</v>
+      </c>
+      <c r="R13" s="36">
+        <v>5636</v>
+      </c>
+      <c r="S13" s="36">
+        <v>5911</v>
+      </c>
+      <c r="T13" s="36">
+        <v>6200</v>
+      </c>
+      <c r="U13" s="36">
+        <v>6503</v>
+      </c>
+      <c r="V13" s="36">
+        <v>6820</v>
+      </c>
+      <c r="W13" s="36">
+        <v>7154</v>
+      </c>
+      <c r="X13" s="36">
+        <v>7503</v>
+      </c>
+      <c r="Y13" s="36">
+        <v>7870</v>
+      </c>
+      <c r="Z13" s="36">
+        <v>8254</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>8658</v>
+      </c>
+      <c r="AB13" s="36">
+        <v>8753</v>
+      </c>
+      <c r="AC13" s="36">
+        <v>8849</v>
+      </c>
+      <c r="AD13" s="36">
+        <v>8946</v>
+      </c>
+      <c r="AE13" s="36">
+        <v>9044</v>
+      </c>
+      <c r="AF13" s="36">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.51546296296296301</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0.51056981132075474</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0.4966666666666667</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0.48166666666666669</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0.453770362169436</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0.44196242113269335</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0.42582667285028553</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0.40877647189109068</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="S14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="X14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AD14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AE14" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AF14" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="40">
+        <v>65</v>
+      </c>
+      <c r="C17" s="40">
+        <v>65</v>
+      </c>
+      <c r="D17" s="40">
+        <v>65</v>
+      </c>
+      <c r="E17" s="40">
+        <v>65</v>
+      </c>
+      <c r="F17" s="40">
+        <v>65</v>
+      </c>
+      <c r="G17" s="40">
+        <v>65</v>
+      </c>
+      <c r="H17" s="40">
+        <v>65</v>
+      </c>
+      <c r="I17" s="40">
+        <v>65</v>
+      </c>
+      <c r="J17" s="40">
+        <v>65</v>
+      </c>
+      <c r="K17" s="40">
+        <v>65</v>
+      </c>
+      <c r="L17" s="40">
+        <v>65</v>
+      </c>
+      <c r="M17" s="40">
+        <v>65</v>
+      </c>
+      <c r="N17" s="40">
+        <v>65</v>
+      </c>
+      <c r="O17" s="40">
+        <v>65</v>
+      </c>
+      <c r="P17" s="40">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>65</v>
+      </c>
+      <c r="R17" s="40">
+        <v>65</v>
+      </c>
+      <c r="S17" s="40">
+        <v>65</v>
+      </c>
+      <c r="T17" s="40">
+        <v>65</v>
+      </c>
+      <c r="U17" s="40">
+        <v>65</v>
+      </c>
+      <c r="V17" s="40">
+        <v>65</v>
+      </c>
+      <c r="W17" s="40">
+        <v>65</v>
+      </c>
+      <c r="X17" s="40">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="40">
+        <v>65</v>
+      </c>
+      <c r="Z17" s="40">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="41">
+        <v>75</v>
+      </c>
+      <c r="AB17" s="41">
+        <v>75</v>
+      </c>
+      <c r="AC17" s="41">
+        <v>75</v>
+      </c>
+      <c r="AD17" s="41">
+        <v>75</v>
+      </c>
+      <c r="AE17" s="41">
+        <v>75</v>
+      </c>
+      <c r="AF17" s="41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <f>26*1000</f>
+        <v>26000</v>
+      </c>
+      <c r="C18">
+        <f>B18+(0.5*1000)</f>
+        <v>26500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:P18" si="0">C18+(0.5*1000)</f>
+        <v>27000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>30500</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>31000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>31500</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>32500</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="Q18">
+        <f>P18+(0.5*1000)</f>
+        <v>33500</v>
+      </c>
+      <c r="R18">
+        <f>$Q$18</f>
+        <v>33500</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:AF18" si="1">$Q$18</f>
+        <v>33500</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="1"/>
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B32" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <f>B32+1</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" ref="D32:AF32" si="2">C32+1</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U32" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AE32" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4">
+        <f>-$B$5*B11</f>
+        <v>-855900000</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34:AF34" si="3">-$B$5*C11</f>
+        <v>-951750000</v>
+      </c>
+      <c r="E34" s="4">
+        <f>-$B$5*D11</f>
+        <v>-1066500000</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="AB34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="AC34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="AD34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1084500000</v>
+      </c>
+      <c r="AE34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1088100000</v>
+      </c>
+      <c r="AF34" s="4">
+        <f t="shared" si="3"/>
+        <v>-1131750000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4">
+        <f>-$B$6*B18</f>
+        <v>-22100000</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:AF35" si="4">-$B$6*C18</f>
+        <v>-22525000</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="4"/>
+        <v>-22950000</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="4"/>
+        <v>-23375000</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="4"/>
+        <v>-23800000</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="4"/>
+        <v>-24225000</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="4"/>
+        <v>-24650000</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="4"/>
+        <v>-25075000</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="4"/>
+        <v>-25500000</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="4"/>
+        <v>-25925000</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="4"/>
+        <v>-26350000</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="4"/>
+        <v>-26775000</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="4"/>
+        <v>-27200000</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="4"/>
+        <v>-27625000</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28050000</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="Z35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AB35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AC35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AD35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AE35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+      <c r="AF35" s="4">
+        <f t="shared" si="4"/>
+        <v>-28475000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
@@ -2387,329 +4374,291 @@
       <c r="B38" s="3"/>
       <c r="C38" s="6">
         <f>SUM(C33:C37)</f>
-        <v>643927181.70000005</v>
+        <v>-878000000</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:L38" si="25">SUM(D33:D37)</f>
-        <v>558457355.40739989</v>
+        <f t="shared" ref="D38:AF38" si="5">SUM(D33:D37)</f>
+        <v>-974275000</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="25"/>
-        <v>673632355.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1089450000</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="25"/>
-        <v>692057355.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1107875000</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="25"/>
-        <v>692482355.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1108300000</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="25"/>
-        <v>699681755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1108725000</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="25"/>
-        <v>735201910.96295547</v>
+        <f t="shared" si="5"/>
+        <v>-1109150000</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="25"/>
-        <v>740599135.93570173</v>
+        <f t="shared" si="5"/>
+        <v>-1109575000</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="25"/>
-        <v>755151955.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1110000000</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="25"/>
-        <v>770819355.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1110425000</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" ref="M38:N38" si="26">SUM(M33:M37)</f>
-        <v>803422755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1110850000</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="26"/>
-        <v>800016464.18530583</v>
+        <f t="shared" si="5"/>
+        <v>-1111275000</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" ref="O38:Q38" si="27">SUM(O33:O37)</f>
-        <v>812440221.5492022</v>
+        <f t="shared" si="5"/>
+        <v>-1111700000</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="27"/>
-        <v>829261723.52385378</v>
+        <f t="shared" si="5"/>
+        <v>-1112125000</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="27"/>
-        <v>847012455.73054922</v>
+        <f t="shared" si="5"/>
+        <v>-1112550000</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" ref="R38:V38" si="28">SUM(R33:R37)</f>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="28"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="28"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="28"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="28"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" ref="W38:AF38" si="29">SUM(W33:W37)</f>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="AA38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="AB38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="AC38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="AD38" s="6">
-        <f t="shared" si="29"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1112975000</v>
       </c>
       <c r="AE38" s="6">
-        <f t="shared" si="29"/>
-        <v>859955755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1116575000</v>
       </c>
       <c r="AF38" s="6">
-        <f t="shared" si="29"/>
-        <v>903605755.40739989</v>
+        <f t="shared" si="5"/>
+        <v>-1160225000</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A39" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="44">
-        <v>520000000</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="4">
-        <f>-B22</f>
-        <v>-8100000000</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="6">
-        <f>SUM(B38:B40)</f>
-        <v>-7580000000</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6">
         <f>SUM(C38:C40)</f>
-        <v>643927181.70000005</v>
+        <v>-878000000</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" ref="D41:L41" si="30">SUM(D38:D40)</f>
-        <v>558457355.40739989</v>
+        <f t="shared" ref="D41:AF41" si="6">SUM(D38:D40)</f>
+        <v>-974275000</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="30"/>
-        <v>673632355.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1089450000</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="30"/>
-        <v>692057355.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1107875000</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="30"/>
-        <v>692482355.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1108300000</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="30"/>
-        <v>699681755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1108725000</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="30"/>
-        <v>735201910.96295547</v>
+        <f t="shared" si="6"/>
+        <v>-1109150000</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="30"/>
-        <v>740599135.93570173</v>
+        <f t="shared" si="6"/>
+        <v>-1109575000</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="30"/>
-        <v>755151955.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1110000000</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="30"/>
-        <v>770819355.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1110425000</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" ref="M41:N41" si="31">SUM(M38:M40)</f>
-        <v>803422755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1110850000</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="31"/>
-        <v>800016464.18530583</v>
+        <f t="shared" si="6"/>
+        <v>-1111275000</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" ref="O41:Q41" si="32">SUM(O38:O40)</f>
-        <v>812440221.5492022</v>
+        <f t="shared" si="6"/>
+        <v>-1111700000</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="32"/>
-        <v>829261723.52385378</v>
+        <f t="shared" si="6"/>
+        <v>-1112125000</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="32"/>
-        <v>847012455.73054922</v>
+        <f t="shared" si="6"/>
+        <v>-1112550000</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" ref="R41:V41" si="33">SUM(R38:R40)</f>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="S41" s="6">
-        <f t="shared" si="33"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" si="33"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="33"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="33"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" ref="W41:AF41" si="34">SUM(W38:W40)</f>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="Y41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="AA41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="AB41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="AC41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" si="34"/>
-        <v>856355755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1112975000</v>
       </c>
       <c r="AE41" s="6">
-        <f t="shared" si="34"/>
-        <v>859955755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1116575000</v>
       </c>
       <c r="AF41" s="6">
-        <f t="shared" si="34"/>
-        <v>903605755.40739989</v>
+        <f t="shared" si="6"/>
+        <v>-1160225000</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.45">
@@ -2718,298 +4667,1072 @@
       </c>
       <c r="C42" s="4">
         <f>C41</f>
-        <v>643927181.70000005</v>
+        <v>-878000000</v>
       </c>
       <c r="D42" s="4">
         <f>C42+D41</f>
-        <v>1202384537.1073999</v>
+        <v>-1852275000</v>
       </c>
       <c r="E42" s="4">
         <f>D42+E41</f>
-        <v>1876016892.5147998</v>
+        <v>-2941725000</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" ref="F42:AF42" si="35">E42+F41</f>
-        <v>2568074247.9221997</v>
+        <f t="shared" ref="F42:AF42" si="7">E42+F41</f>
+        <v>-4049600000</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="35"/>
-        <v>3260556603.3295994</v>
+        <f t="shared" si="7"/>
+        <v>-5157900000</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="35"/>
-        <v>3960238358.7369995</v>
+        <f t="shared" si="7"/>
+        <v>-6266625000</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="35"/>
-        <v>4695440269.699955</v>
+        <f>H42+I41</f>
+        <v>-7375775000</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="35"/>
-        <v>5436039405.6356564</v>
+        <f t="shared" si="7"/>
+        <v>-8485350000</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="35"/>
-        <v>6191191361.0430565</v>
+        <f t="shared" si="7"/>
+        <v>-9595350000</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="35"/>
-        <v>6962010716.4504566</v>
+        <f t="shared" si="7"/>
+        <v>-10705775000</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="35"/>
-        <v>7765433471.8578568</v>
+        <f t="shared" si="7"/>
+        <v>-11816625000</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="35"/>
-        <v>8565449936.0431623</v>
+        <f t="shared" si="7"/>
+        <v>-12927900000</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="35"/>
-        <v>9377890157.5923653</v>
+        <f t="shared" si="7"/>
+        <v>-14039600000</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="35"/>
-        <v>10207151881.116219</v>
+        <f t="shared" si="7"/>
+        <v>-15151725000</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="35"/>
-        <v>11054164336.846767</v>
+        <f t="shared" si="7"/>
+        <v>-16264275000</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="35"/>
-        <v>11910520092.254168</v>
+        <f t="shared" si="7"/>
+        <v>-17377250000</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="35"/>
-        <v>12766875847.661568</v>
+        <f t="shared" si="7"/>
+        <v>-18490225000</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="35"/>
-        <v>13623231603.068968</v>
+        <f t="shared" si="7"/>
+        <v>-19603200000</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="35"/>
-        <v>14479587358.476368</v>
+        <f t="shared" si="7"/>
+        <v>-20716175000</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="35"/>
-        <v>15335943113.883768</v>
+        <f t="shared" si="7"/>
+        <v>-21829150000</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="35"/>
-        <v>16192298869.291168</v>
+        <f t="shared" si="7"/>
+        <v>-22942125000</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="35"/>
-        <v>17048654624.698568</v>
+        <f t="shared" si="7"/>
+        <v>-24055100000</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="35"/>
-        <v>17905010380.105968</v>
+        <f t="shared" si="7"/>
+        <v>-25168075000</v>
       </c>
       <c r="Z42" s="4">
-        <f t="shared" si="35"/>
-        <v>18761366135.513367</v>
+        <f t="shared" si="7"/>
+        <v>-26281050000</v>
       </c>
       <c r="AA42" s="4">
-        <f t="shared" si="35"/>
-        <v>19617721890.920765</v>
+        <f t="shared" si="7"/>
+        <v>-27394025000</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="35"/>
-        <v>20474077646.328163</v>
+        <f t="shared" si="7"/>
+        <v>-28507000000</v>
       </c>
       <c r="AC42" s="4">
-        <f t="shared" si="35"/>
-        <v>21330433401.735561</v>
+        <f t="shared" si="7"/>
+        <v>-29619975000</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="35"/>
-        <v>22186789157.14296</v>
+        <f t="shared" si="7"/>
+        <v>-30732950000</v>
       </c>
       <c r="AE42" s="4">
-        <f t="shared" si="35"/>
-        <v>23046744912.550358</v>
+        <f t="shared" si="7"/>
+        <v>-31849525000</v>
       </c>
       <c r="AF42" s="4">
-        <f t="shared" si="35"/>
-        <v>23950350667.957756</v>
+        <f t="shared" si="7"/>
+        <v>-33009750000</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="11">
-        <f>NPV(E2,C41:AF41)+B41</f>
-        <v>5780454203.5973263</v>
+      <c r="B44" s="27">
+        <f>NPV(E2,C41:AF41)</f>
+        <v>-18861536567.386581</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="31">
-        <f>IRR(B41:AF41)</f>
-        <v>9.0631256709380992E-2</v>
-      </c>
+      <c r="B45" s="31"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DC21E-058F-482D-A8A2-6B9883F2C100}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="32">
-        <f>(-B41-L42)/M41+L32</f>
-        <v>10.769195643750685</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="15"/>
-      <c r="B52" s="28"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.51546296296296301</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.51056981132075474</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.4966666666666667</v>
+      </c>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.48166666666666669</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.453770362169436</v>
+      </c>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.44196242113269335</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.42582667285028553</v>
+      </c>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.40877647189109068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66269A21-A848-42A9-8F74-BAC8A0ED050A}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A31" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADE417E-D27D-4B4F-8D6E-CB834DBE5103}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <f>2018</f>
+        <v>2018</v>
+      </c>
+      <c r="B2" s="43">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A9" si="0">A2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="B3" s="43">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B4" s="43">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="B5" s="43">
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B6" s="43">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B7" s="43">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B8" s="43">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B9" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A9,B2:B8,A2:A8)</f>
+        <v>25.807142857142935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <f t="shared" ref="A10:A38" si="1">A9+1</f>
+        <v>2026</v>
+      </c>
+      <c r="B10" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A10,B2:B9,A2:A9)</f>
+        <v>26.39392857142866</v>
+      </c>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="B11" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A11,B2:B10,A2:A10)</f>
+        <v>26.980714285714384</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="B12" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A12,B2:B11,A2:A11)</f>
+        <v>27.567500000000109</v>
+      </c>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="B13" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A13,B2:B12,A2:A12)</f>
+        <v>28.154285714285834</v>
+      </c>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="B14" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A14,B2:B13,A2:A13)</f>
+        <v>28.741071428571558</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="B15" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A15,B2:B14,A2:A14)</f>
+        <v>29.327857142857283</v>
+      </c>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="B16" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A16,B2:B15,A2:A15)</f>
+        <v>29.914642857143008</v>
+      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="B17" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A17,B2:B16,A2:A16)</f>
+        <v>30.501428571428733</v>
+      </c>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="B18" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A18,B2:B17,A2:A17)</f>
+        <v>31.088214285714457</v>
+      </c>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="B19" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A19,B2:B18,A2:A18)</f>
+        <v>31.675000000000182</v>
+      </c>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="B20" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A20,B2:B19,A2:A19)</f>
+        <v>32.261785714285907</v>
+      </c>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="B21" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A21,B2:B20,A2:A20)</f>
+        <v>32.848571428571631</v>
+      </c>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="B22" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A22,B2:B21,A2:A21)</f>
+        <v>33.435357142857356</v>
+      </c>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="B23" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A23,B2:B22,A2:A22)</f>
+        <v>34.022142857143081</v>
+      </c>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="B24" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A24,B2:B23,A2:A23)</f>
+        <v>34.608928571428805</v>
+      </c>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="B25" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A25,B2:B24,A2:A24)</f>
+        <v>35.19571428571453</v>
+      </c>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="B26" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A26,B2:B25,A2:A25)</f>
+        <v>35.782500000000255</v>
+      </c>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="B27" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A27,B2:B26,A2:A26)</f>
+        <v>36.369285714285979</v>
+      </c>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="B28" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A28,B2:B27,A2:A27)</f>
+        <v>36.956071428571704</v>
+      </c>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="B29" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A29,B2:B28,A2:A28)</f>
+        <v>37.542857142857429</v>
+      </c>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="B30" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A30,B2:B29,A2:A29)</f>
+        <v>38.129642857143153</v>
+      </c>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="B31" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A31,B2:B30,A2:A30)</f>
+        <v>38.716428571428878</v>
+      </c>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="B32" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A32,B2:B31,A2:A31)</f>
+        <v>39.303214285714603</v>
+      </c>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="B33" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A33,B2:B32,A2:A32)</f>
+        <v>39.890000000000327</v>
+      </c>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="B34" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A34,B2:B33,A2:A33)</f>
+        <v>40.476785714286052</v>
+      </c>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="B35" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A35,B2:B34,A2:A34)</f>
+        <v>41.063571428571777</v>
+      </c>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="B36" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A36,B2:B35,A2:A35)</f>
+        <v>41.650357142857501</v>
+      </c>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="B37" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A37,B2:B36,A2:A36)</f>
+        <v>42.237142857143226</v>
+      </c>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="B38" s="28">
+        <f>_xlfn.FORECAST.LINEAR(A38,B2:B37,A2:A37)</f>
+        <v>42.823928571428951</v>
+      </c>
+      <c r="C38" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B27BBC-8FD0-4CCD-8F39-4098B883E161}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3104,885 +5827,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DC21E-058F-482D-A8A2-6B9883F2C100}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="C5" s="28"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0.51546296296296301</v>
-      </c>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0.51056981132075474</v>
-      </c>
-      <c r="C9" s="28"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0.4966666666666667</v>
-      </c>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.48166666666666669</v>
-      </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0.453770362169436</v>
-      </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0.44196242113269335</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0.42582667285028553</v>
-      </c>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28">
-        <v>0.40877647189109068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66269A21-A848-42A9-8F74-BAC8A0ED050A}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <f>1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A31" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="43">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADE417E-D27D-4B4F-8D6E-CB834DBE5103}">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <f>2018</f>
-        <v>2018</v>
-      </c>
-      <c r="B2" s="43">
-        <v>21.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <f>A2+1</f>
-        <v>2019</v>
-      </c>
-      <c r="B3" s="43">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <f>A3+1</f>
-        <v>2020</v>
-      </c>
-      <c r="B4" s="43">
-        <v>22.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <f>A4+1</f>
-        <v>2021</v>
-      </c>
-      <c r="B5" s="43">
-        <v>23.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <f>A5+1</f>
-        <v>2022</v>
-      </c>
-      <c r="B6" s="43">
-        <v>23.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <f>A6+1</f>
-        <v>2023</v>
-      </c>
-      <c r="B7" s="43">
-        <v>24.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <f>A7+1</f>
-        <v>2024</v>
-      </c>
-      <c r="B8" s="43">
-        <v>25.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <f>A8+1</f>
-        <v>2025</v>
-      </c>
-      <c r="B9" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A9,B2:B8,A2:A8)</f>
-        <v>25.807142857142935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <f t="shared" ref="A10:A38" si="0">A9+1</f>
-        <v>2026</v>
-      </c>
-      <c r="B10" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A10,B2:B9,A2:A9)</f>
-        <v>26.39392857142866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="B11" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A11,B2:B10,A2:A10)</f>
-        <v>26.980714285714384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="B12" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A12,B2:B11,A2:A11)</f>
-        <v>27.567500000000109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="B13" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A13,B2:B12,A2:A12)</f>
-        <v>28.154285714285834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="B14" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A14,B2:B13,A2:A13)</f>
-        <v>28.741071428571558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="B15" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A15,B2:B14,A2:A14)</f>
-        <v>29.327857142857283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="B16" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A16,B2:B15,A2:A15)</f>
-        <v>29.914642857143008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="B17" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A17,B2:B16,A2:A16)</f>
-        <v>30.501428571428733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="B18" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A18,B2:B17,A2:A17)</f>
-        <v>31.088214285714457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="B19" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A19,B2:B18,A2:A18)</f>
-        <v>31.675000000000182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="B20" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A20,B2:B19,A2:A19)</f>
-        <v>32.261785714285907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="B21" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A21,B2:B20,A2:A20)</f>
-        <v>32.848571428571631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="B22" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A22,B2:B21,A2:A21)</f>
-        <v>33.435357142857356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="B23" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A23,B2:B22,A2:A22)</f>
-        <v>34.022142857143081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="B24" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A24,B2:B23,A2:A23)</f>
-        <v>34.608928571428805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="B25" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A25,B2:B24,A2:A24)</f>
-        <v>35.19571428571453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="B26" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A26,B2:B25,A2:A25)</f>
-        <v>35.782500000000255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="B27" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A27,B2:B26,A2:A26)</f>
-        <v>36.369285714285979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="B28" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A28,B2:B27,A2:A27)</f>
-        <v>36.956071428571704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="B29" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A29,B2:B28,A2:A28)</f>
-        <v>37.542857142857429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="B30" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A30,B2:B29,A2:A29)</f>
-        <v>38.129642857143153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="B31" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A31,B2:B30,A2:A30)</f>
-        <v>38.716428571428878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="B32" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A32,B2:B31,A2:A31)</f>
-        <v>39.303214285714603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="B33" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A33,B2:B32,A2:A32)</f>
-        <v>39.890000000000327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="B34" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A34,B2:B33,A2:A33)</f>
-        <v>40.476785714286052</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>2051</v>
-      </c>
-      <c r="B35" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A35,B2:B34,A2:A34)</f>
-        <v>41.063571428571777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <f t="shared" si="0"/>
-        <v>2052</v>
-      </c>
-      <c r="B36" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A36,B2:B35,A2:A35)</f>
-        <v>41.650357142857501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <f t="shared" si="0"/>
-        <v>2053</v>
-      </c>
-      <c r="B37" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A37,B2:B36,A2:A36)</f>
-        <v>42.237142857143226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
-        <f t="shared" si="0"/>
-        <v>2054</v>
-      </c>
-      <c r="B38" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A38,B2:B37,A2:A37)</f>
-        <v>42.823928571428951</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
+++ b/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a00cca614a243a/Dokumenter/SOK - 2014 Kost og nytteanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1519" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BE86FB-2CA2-4438-8634-A0FA000491E2}"/>
+  <xr:revisionPtr revIDLastSave="2151" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E826BC-5CA6-4188-AE24-0B4131499D9F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nettonåverdi elektrifisering" sheetId="1" r:id="rId1"/>
-    <sheet name="Null alternativ" sheetId="6" r:id="rId2"/>
-    <sheet name="Strøm-pris Lineær Prognose " sheetId="3" r:id="rId3"/>
+    <sheet name="Full Elektrifisering NNV" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingen Elektrifisering NNV" sheetId="6" r:id="rId2"/>
+    <sheet name="Strøm-pris lineær prognose " sheetId="3" r:id="rId3"/>
     <sheet name="Gass-pris lineær prognose " sheetId="4" r:id="rId4"/>
-    <sheet name="NOx-pris Lineær prognose" sheetId="5" r:id="rId5"/>
+    <sheet name="NOx-pris lineær prognose" sheetId="5" r:id="rId5"/>
     <sheet name="Tiltakskostnad" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>Inndata</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Diskonteringsrate </t>
   </si>
   <si>
-    <t>Andre vedlikeholdskostnader</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prosjektets levetid </t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Nettonåverdi</t>
   </si>
   <si>
-    <t>Investering i anleggsmiddler</t>
-  </si>
-  <si>
     <t>Kontantstrøm før skatt</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Tilbakebetalingstid</t>
   </si>
   <si>
-    <t xml:space="preserve">Notat: Tallene merket i lyse blått er hentet fra stattnett sin langsiktige markedsanalyse. Det er anvendt en lineær prognose for å esitmerer verdiene i mellom disse. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Notat: Tallene merket i lyse blått er faktiske priser for utslipp av NOx. Det er anvendt en lineær prognose for å estimere verdiene frem til 2055. </t>
   </si>
   <si>
@@ -194,18 +185,531 @@
   </si>
   <si>
     <t>Kostnader i Nox avgifter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Gassinntekter fra frigjort gass</t>
+  </si>
+  <si>
+    <t>Akkumulert underskudd</t>
+  </si>
+  <si>
+    <t>Arbeidskapital tilgjengelig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vekslingskurs 1 USD til NOK: </t>
+  </si>
+  <si>
+    <t>Pris NOK/tonn</t>
+  </si>
+  <si>
+    <t>Antall kilo i 1 tonn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Årlig kraftbehov/kWh </t>
+  </si>
+  <si>
+    <t>Kilder:</t>
+  </si>
+  <si>
+    <t>https://www.equinor.com/news/20240911-reducing-emissions-troll-field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hentet fra: </t>
+  </si>
+  <si>
+    <t>Investering i anleggsmiddler [8]</t>
+  </si>
+  <si>
+    <t>https://www.regjeringen.no/no/tema/okonomi-og-budsjett/statlig-okonomistyring/karbonprisbaner-for-bruk-i-samfunnsokonomiske-analyser-i-2024/id3020031/</t>
+  </si>
+  <si>
+    <t>https://www.statnett.no/globalassets/for-aktorer-i-kraftsystemet/planer-og-analyser/lma/langsiktig-markedsanalyse-2022-2050.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iea.org/reports/world-energy-outlook-2024#downloads. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilgjengelig fra: </t>
+  </si>
+  <si>
+    <t>https://www.skatteetaten.no/satser/saravgift---nox/?year=2024#rateShowYear</t>
+  </si>
+  <si>
+    <t>Se eget ark for prognose og kilde:</t>
+  </si>
+  <si>
+    <t>Nox-pris lineær prognose</t>
+  </si>
+  <si>
+    <t>Gass-pris lineær prognose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strøm-pris lineær prognose </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Notat: Tallene merket i lyse blått </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[7]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> er prognoser hentet fra  World Energy Outlook 2024. IEA. Det er anvendt en lineær prognose for å estimere verdiene frem til 2055. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [7] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tilgjengelig fra: </t>
+    </r>
+  </si>
+  <si>
+    <t>Basert på faktisk Valutakurs 01.11.2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notat: Tallene merket i lyse blått </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> er hentet fra stattnett sin langsiktige markedsanalyse. Det er anvendt en lineær prognose for å esitmerer verdiene i mellom disse. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tilgjengelig fra:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Årlig kraftbehov/mWh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduksjon i Nox utslipp/tonn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduksjon i CO2-utslipp/tonn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mellomregning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Petroleum (CO2-kvoter/tonn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [4]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Strømpris NOK/kWh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[5]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gasspris NOK/MMBtu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [6]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nox-pris NOK/tonn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[7]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> og </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[7]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;kr&quot;\ #,##0.00;[Red]\-&quot;kr&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +749,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,10 +840,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,15 +909,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,58 +1278,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F3DA7-FE76-4FF3-BFD4-2A5423F54C1B}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.265625" customWidth="1"/>
-    <col min="2" max="2" width="25.06640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.73046875" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.796875" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="20.73046875" customWidth="1"/>
-    <col min="15" max="15" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.796875" customWidth="1"/>
-    <col min="17" max="17" width="19.265625" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" customWidth="1"/>
-    <col min="19" max="19" width="20.9296875" customWidth="1"/>
-    <col min="20" max="20" width="19.1328125" customWidth="1"/>
-    <col min="21" max="21" width="21.19921875" customWidth="1"/>
-    <col min="22" max="22" width="20.59765625" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
-    <col min="24" max="24" width="19.3984375" customWidth="1"/>
-    <col min="25" max="25" width="20.53125" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" customWidth="1"/>
-    <col min="27" max="27" width="22" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" customWidth="1"/>
-    <col min="29" max="29" width="22" customWidth="1"/>
-    <col min="30" max="30" width="21.46484375" customWidth="1"/>
-    <col min="31" max="31" width="18.86328125" customWidth="1"/>
-    <col min="32" max="32" width="20.53125" customWidth="1"/>
+    <col min="8" max="12" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="14"/>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>8760</v>
@@ -797,40 +1317,43 @@
       <c r="E2" s="8">
         <v>0.04</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10">
         <f>116*B2</f>
         <v>1016160</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5778818.1799999997</v>
+      </c>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B4" s="29">
         <f>B3*1000</f>
         <v>1016160000</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -838,23 +1361,23 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10">
         <v>450000</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10">
         <v>850</v>
@@ -863,12 +1386,6 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5778818.1799999997</v>
-      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -885,7 +1402,7 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19">
         <v>45658</v>
@@ -983,7 +1500,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B11" s="16">
         <v>1902</v>
@@ -1081,7 +1598,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="16">
         <v>713</v>
@@ -1179,7 +1696,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="35">
         <v>2043</v>
@@ -1277,7 +1794,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B14" s="28">
         <v>0.6</v>
@@ -1375,7 +1892,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1406,7 +1923,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -1442,229 +1959,198 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="40">
-        <v>65</v>
-      </c>
-      <c r="C17" s="40">
-        <v>65</v>
-      </c>
-      <c r="D17" s="40">
-        <v>65</v>
-      </c>
-      <c r="E17" s="40">
-        <v>65</v>
-      </c>
-      <c r="F17" s="40">
-        <v>65</v>
-      </c>
-      <c r="G17" s="40">
-        <v>65</v>
-      </c>
-      <c r="H17" s="40">
-        <v>65</v>
-      </c>
-      <c r="I17" s="40">
-        <v>65</v>
-      </c>
-      <c r="J17" s="40">
-        <v>65</v>
-      </c>
-      <c r="K17" s="40">
-        <v>65</v>
-      </c>
-      <c r="L17" s="40">
-        <v>65</v>
-      </c>
-      <c r="M17" s="40">
-        <v>65</v>
-      </c>
-      <c r="N17" s="40">
-        <v>65</v>
-      </c>
-      <c r="O17" s="40">
-        <v>65</v>
-      </c>
-      <c r="P17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="40">
-        <v>65</v>
-      </c>
-      <c r="R17" s="40">
-        <v>65</v>
-      </c>
-      <c r="S17" s="40">
-        <v>65</v>
-      </c>
-      <c r="T17" s="40">
-        <v>65</v>
-      </c>
-      <c r="U17" s="40">
-        <v>65</v>
-      </c>
-      <c r="V17" s="40">
-        <v>65</v>
-      </c>
-      <c r="W17" s="40">
-        <v>65</v>
-      </c>
-      <c r="X17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Z17" s="40">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AB17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AD17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AE17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AF17" s="41">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="B17" s="46">
+        <v>66.870891237338199</v>
+      </c>
+      <c r="C17" s="46">
+        <v>67.512082042656473</v>
+      </c>
+      <c r="D17" s="46">
+        <v>68.153272847974776</v>
+      </c>
+      <c r="E17" s="46">
+        <v>68.794463653293064</v>
+      </c>
+      <c r="F17" s="46">
+        <v>69.435654458611381</v>
+      </c>
+      <c r="G17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="H17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="I17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="J17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="K17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="L17" s="46">
+        <v>71.5</v>
+      </c>
+      <c r="M17" s="46">
+        <v>73.93157894736845</v>
+      </c>
+      <c r="N17" s="46">
+        <v>74.572874493927145</v>
+      </c>
+      <c r="O17" s="46">
+        <v>75.214170040485854</v>
+      </c>
+      <c r="P17" s="46">
+        <v>75.855465587044577</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>76.496761133603286</v>
+      </c>
+      <c r="R17" s="46">
+        <v>77.138056680161966</v>
+      </c>
+      <c r="S17" s="46">
+        <v>77.779352226720661</v>
+      </c>
+      <c r="T17" s="46">
+        <v>78.358476304082956</v>
+      </c>
+      <c r="U17" s="46">
+        <v>78.974361217632094</v>
+      </c>
+      <c r="V17" s="46">
+        <v>79.623038088306998</v>
+      </c>
+      <c r="W17" s="46">
+        <v>80.297018508900166</v>
+      </c>
+      <c r="X17" s="46">
+        <v>80.983502635597731</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>81.661680207749569</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>82.29865251903702</v>
+      </c>
+      <c r="AA17" s="46">
+        <v>84.7</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>84.7</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>84.7</v>
+      </c>
+      <c r="AD17" s="46">
+        <v>84.7</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>84.7</v>
+      </c>
+      <c r="AF17" s="46">
+        <v>84.7</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <f>26*1000</f>
-        <v>26000</v>
-      </c>
-      <c r="C18">
-        <f>B18+(0.5*1000)</f>
-        <v>26500</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:P18" si="0">C18+(0.5*1000)</f>
-        <v>27000</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>28500</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>29000</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>29500</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>30500</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>31000</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>31500</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>32000</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>32500</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>33000</v>
-      </c>
-      <c r="Q18">
-        <f>P18+(0.5*1000)</f>
-        <v>33500</v>
-      </c>
-      <c r="R18">
-        <f>$Q$18</f>
-        <v>33500</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ref="S18:AF18" si="1">$Q$18</f>
-        <v>33500</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="1"/>
-        <v>33500</v>
+        <v>81</v>
+      </c>
+      <c r="B18" s="16">
+        <v>25807.142857142899</v>
+      </c>
+      <c r="C18" s="16">
+        <v>26393.928571428576</v>
+      </c>
+      <c r="D18" s="16">
+        <v>26980.71428571429</v>
+      </c>
+      <c r="E18" s="16">
+        <v>27567.500000000007</v>
+      </c>
+      <c r="F18" s="16">
+        <v>28154.285714285721</v>
+      </c>
+      <c r="G18" s="16">
+        <v>28741.071428571438</v>
+      </c>
+      <c r="H18" s="16">
+        <v>29327.857142857152</v>
+      </c>
+      <c r="I18" s="16">
+        <v>29914.64285714287</v>
+      </c>
+      <c r="J18" s="16">
+        <v>30501.428571428587</v>
+      </c>
+      <c r="K18" s="16">
+        <v>31088.214285714301</v>
+      </c>
+      <c r="L18" s="16">
+        <v>31675.000000000015</v>
+      </c>
+      <c r="M18" s="16">
+        <v>32261.785714285728</v>
+      </c>
+      <c r="N18" s="16">
+        <v>32848.571428571449</v>
+      </c>
+      <c r="O18" s="16">
+        <v>33435.357142857159</v>
+      </c>
+      <c r="P18" s="16">
+        <v>34022.142857142877</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>34608.928571428587</v>
+      </c>
+      <c r="R18" s="16">
+        <v>35195.714285714304</v>
+      </c>
+      <c r="S18" s="16">
+        <v>35782.500000000022</v>
+      </c>
+      <c r="T18" s="16">
+        <v>36369.285714285739</v>
+      </c>
+      <c r="U18" s="16">
+        <v>36956.071428571449</v>
+      </c>
+      <c r="V18" s="16">
+        <v>37542.857142857167</v>
+      </c>
+      <c r="W18" s="16">
+        <v>38129.642857142884</v>
+      </c>
+      <c r="X18" s="16">
+        <v>38716.428571428594</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>39303.214285714312</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>39890.000000000029</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>40476.785714285739</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>41063.571428571457</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>41650.357142857174</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>42237.142857142891</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>42823.928571428609</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>43425.212018140628</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1674,7 +2160,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9">
         <v>8100000000</v>
@@ -1688,1158 +2174,1162 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="B24" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <f>B24+1</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:M24" si="0">C24+1</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24" si="1">M24+1</f>
+        <v>12</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" ref="O24" si="2">N24+1</f>
+        <v>13</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" ref="P24:Q24" si="3">O24+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" ref="R24" si="4">Q24+1</f>
+        <v>16</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" ref="S24" si="5">R24+1</f>
+        <v>17</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" ref="T24" si="6">S24+1</f>
+        <v>18</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" ref="U24" si="7">T24+1</f>
+        <v>19</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" ref="V24" si="8">U24+1</f>
+        <v>20</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" ref="W24" si="9">V24+1</f>
+        <v>21</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" ref="X24" si="10">W24+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" ref="Y24" si="11">X24+1</f>
+        <v>23</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" ref="Z24" si="12">Y24+1</f>
+        <v>24</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" ref="AA24" si="13">Z24+1</f>
+        <v>25</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" ref="AB24" si="14">AA24+1</f>
+        <v>26</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" ref="AC24" si="15">AB24+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" ref="AD24" si="16">AC24+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE24" s="7">
+        <f t="shared" ref="AE24" si="17">AD24+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" ref="AF24" si="18">AE24+1</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4">
+        <f>B17*$H$3</f>
+        <v>386434721.99513268</v>
+      </c>
+      <c r="D25" s="4">
+        <f>C17*$H$3</f>
+        <v>390140047.07775474</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D17*$H$3</f>
+        <v>393845372.16037697</v>
+      </c>
+      <c r="F25" s="4">
+        <f>E17*$H$3</f>
+        <v>397550697.24299914</v>
+      </c>
+      <c r="G25" s="4">
+        <f>F17*$H$3</f>
+        <v>401256022.32562149</v>
+      </c>
+      <c r="H25" s="4">
+        <f>G17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="I25" s="4">
+        <f>H17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="J25" s="4">
+        <f>I17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="K25" s="4">
+        <f>J17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="L25" s="4">
+        <f>K17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="M25" s="4">
+        <f>L17*$H$3</f>
+        <v>413185499.87</v>
+      </c>
+      <c r="N25" s="4">
+        <f>M17*$H$3</f>
+        <v>427237152.49715805</v>
+      </c>
+      <c r="O25" s="4">
+        <f>N17*$H$3</f>
+        <v>430943082.86036444</v>
+      </c>
+      <c r="P25" s="4">
+        <f>O17*$H$3</f>
+        <v>434649013.22357094</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>P17*$H$3</f>
+        <v>438354943.58677757</v>
+      </c>
+      <c r="R25" s="4">
+        <f>Q17*$H$3</f>
+        <v>442060873.94998407</v>
+      </c>
+      <c r="S25" s="4">
+        <f>R17*$H$3</f>
+        <v>445766804.3131904</v>
+      </c>
+      <c r="T25" s="4">
+        <f>S17*$H$3</f>
+        <v>449472734.67639679</v>
+      </c>
+      <c r="U25" s="4">
+        <f>T17*$H$3</f>
+        <v>452819387.42313379</v>
+      </c>
+      <c r="V25" s="4">
+        <f>U17*$H$3</f>
+        <v>456378474.35833925</v>
+      </c>
+      <c r="W25" s="4">
+        <f>V17*$H$3</f>
+        <v>460127060.05154091</v>
+      </c>
+      <c r="X25" s="4">
+        <f>W17*$H$3</f>
+        <v>464021870.35902876</v>
+      </c>
+      <c r="Y25" s="4">
+        <f>X17*$H$3</f>
+        <v>467988937.31067008</v>
+      </c>
+      <c r="Z25" s="4">
+        <f>Y17*$H$3</f>
+        <v>471908002.19388938</v>
+      </c>
+      <c r="AA25" s="4">
+        <f>Z17*$H$3</f>
+        <v>475588949.36651391</v>
+      </c>
+      <c r="AB25" s="4">
+        <f>AA17*$H$3</f>
+        <v>489465899.84600002</v>
+      </c>
+      <c r="AC25" s="4">
+        <f>AB17*$H$3</f>
+        <v>489465899.84600002</v>
+      </c>
+      <c r="AD25" s="4">
+        <f>AC17*$H$3</f>
+        <v>489465899.84600002</v>
+      </c>
+      <c r="AE25" s="4">
+        <f>AD17*$H$3</f>
+        <v>489465899.84600002</v>
+      </c>
+      <c r="AF25" s="4">
+        <f>AE17*$H$3</f>
+        <v>489465899.84600002</v>
+      </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B32" s="7">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
-        <f>B32+1</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" ref="D32:M32" si="2">C32+1</f>
-        <v>2</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="2"/>
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="N32" s="7">
-        <f t="shared" ref="N32" si="3">M32+1</f>
-        <v>12</v>
-      </c>
-      <c r="O32" s="7">
-        <f t="shared" ref="O32" si="4">N32+1</f>
-        <v>13</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" ref="P32:Q32" si="5">O32+1</f>
-        <v>14</v>
-      </c>
-      <c r="Q32" s="7">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="R32" s="7">
-        <f t="shared" ref="R32" si="6">Q32+1</f>
-        <v>16</v>
-      </c>
-      <c r="S32" s="7">
-        <f t="shared" ref="S32" si="7">R32+1</f>
-        <v>17</v>
-      </c>
-      <c r="T32" s="7">
-        <f t="shared" ref="T32" si="8">S32+1</f>
-        <v>18</v>
-      </c>
-      <c r="U32" s="7">
-        <f t="shared" ref="U32" si="9">T32+1</f>
-        <v>19</v>
-      </c>
-      <c r="V32" s="7">
-        <f t="shared" ref="V32" si="10">U32+1</f>
-        <v>20</v>
-      </c>
-      <c r="W32" s="7">
-        <f t="shared" ref="W32" si="11">V32+1</f>
-        <v>21</v>
-      </c>
-      <c r="X32" s="7">
-        <f t="shared" ref="X32" si="12">W32+1</f>
-        <v>22</v>
-      </c>
-      <c r="Y32" s="7">
-        <f t="shared" ref="Y32" si="13">X32+1</f>
-        <v>23</v>
-      </c>
-      <c r="Z32" s="7">
-        <f t="shared" ref="Z32" si="14">Y32+1</f>
-        <v>24</v>
-      </c>
-      <c r="AA32" s="7">
-        <f t="shared" ref="AA32" si="15">Z32+1</f>
-        <v>25</v>
-      </c>
-      <c r="AB32" s="7">
-        <f t="shared" ref="AB32" si="16">AA32+1</f>
-        <v>26</v>
-      </c>
-      <c r="AC32" s="7">
-        <f t="shared" ref="AC32" si="17">AB32+1</f>
-        <v>27</v>
-      </c>
-      <c r="AD32" s="7">
-        <f t="shared" ref="AD32" si="18">AC32+1</f>
-        <v>28</v>
-      </c>
-      <c r="AE32" s="7">
-        <f t="shared" ref="AE32" si="19">AD32+1</f>
-        <v>29</v>
-      </c>
-      <c r="AF32" s="7">
-        <f t="shared" ref="AF32" si="20">AE32+1</f>
-        <v>30</v>
-      </c>
-      <c r="AG32" s="13"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4">
-        <f>B17*$B$7</f>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" ref="D33:AF33" si="21">C17*$B$7</f>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="L33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="P33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="V33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="W33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="X33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="Y33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="AA33" s="4">
-        <f t="shared" si="21"/>
-        <v>375623181.69999999</v>
-      </c>
-      <c r="AB33" s="4">
-        <f t="shared" si="21"/>
-        <v>433411363.5</v>
-      </c>
-      <c r="AC33" s="4">
-        <f t="shared" si="21"/>
-        <v>433411363.5</v>
-      </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="21"/>
-        <v>433411363.5</v>
-      </c>
-      <c r="AE33" s="4">
-        <f t="shared" si="21"/>
-        <v>433411363.5</v>
-      </c>
-      <c r="AF33" s="4">
-        <f t="shared" si="21"/>
-        <v>433411363.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="C26" s="4">
         <f>$B$5*B11</f>
         <v>855900000</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" ref="D34:AF34" si="22">$B$5*C11</f>
+      <c r="D26" s="4">
+        <f>$B$5*C11</f>
         <v>951750000</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E26" s="4">
+        <f>$B$5*D11</f>
+        <v>1066500000</v>
+      </c>
+      <c r="F26" s="4">
+        <f>$B$5*E11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="G26" s="4">
+        <f>$B$5*F11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="H26" s="4">
+        <f>$B$5*G11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="I26" s="4">
+        <f>$B$5*H11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="J26" s="4">
+        <f>$B$5*I11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="K26" s="4">
+        <f>$B$5*J11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="L26" s="4">
+        <f>$B$5*K11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="M26" s="4">
+        <f>$B$5*L11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="N26" s="4">
+        <f>$B$5*M11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="O26" s="4">
+        <f>$B$5*N11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="P26" s="4">
+        <f>$B$5*O11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>$B$5*P11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="R26" s="4">
+        <f>$B$5*Q11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="S26" s="4">
+        <f>$B$5*R11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="T26" s="4">
+        <f>$B$5*S11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="U26" s="4">
+        <f>$B$5*T11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="V26" s="4">
+        <f>$B$5*U11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="W26" s="4">
+        <f>$B$5*V11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="X26" s="4">
+        <f>$B$5*W11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>$B$5*X11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="Z26" s="4">
+        <f>$B$5*Y11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="AA26" s="4">
+        <f>$B$5*Z11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="AB26" s="4">
+        <f>$B$5*AA11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="AC26" s="4">
+        <f>$B$5*AB11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="AD26" s="4">
+        <f>$B$5*AC11</f>
+        <v>1084500000</v>
+      </c>
+      <c r="AE26" s="4">
+        <f>$B$5*AD11</f>
+        <v>1088100000</v>
+      </c>
+      <c r="AF26" s="4">
+        <f>$B$5*AE11</f>
+        <v>1131750000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4">
+        <f>$B$6*B18</f>
+        <v>21936071.428571463</v>
+      </c>
+      <c r="D27" s="4">
+        <f>$B$6*C18</f>
+        <v>22434839.285714291</v>
+      </c>
+      <c r="E27" s="4">
+        <f>$B$6*D18</f>
+        <v>22933607.142857146</v>
+      </c>
+      <c r="F27" s="4">
+        <f>$B$6*E18</f>
+        <v>23432375.000000007</v>
+      </c>
+      <c r="G27" s="4">
+        <f>$B$6*F18</f>
+        <v>23931142.857142862</v>
+      </c>
+      <c r="H27" s="4">
+        <f>$B$6*G18</f>
+        <v>24429910.714285724</v>
+      </c>
+      <c r="I27" s="4">
+        <f>$B$6*H18</f>
+        <v>24928678.571428578</v>
+      </c>
+      <c r="J27" s="4">
+        <f>$B$6*I18</f>
+        <v>25427446.42857144</v>
+      </c>
+      <c r="K27" s="4">
+        <f>$B$6*J18</f>
+        <v>25926214.285714298</v>
+      </c>
+      <c r="L27" s="4">
+        <f>$B$6*K18</f>
+        <v>26424982.142857157</v>
+      </c>
+      <c r="M27" s="4">
+        <f>$B$6*L18</f>
+        <v>26923750.000000011</v>
+      </c>
+      <c r="N27" s="4">
+        <f>$B$6*M18</f>
+        <v>27422517.857142869</v>
+      </c>
+      <c r="O27" s="4">
+        <f>$B$6*N18</f>
+        <v>27921285.714285731</v>
+      </c>
+      <c r="P27" s="4">
+        <f>$B$6*O18</f>
+        <v>28420053.571428586</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>$B$6*P18</f>
+        <v>28918821.428571444</v>
+      </c>
+      <c r="R27" s="4">
+        <f>$B$6*Q18</f>
+        <v>29417589.285714298</v>
+      </c>
+      <c r="S27" s="4">
+        <f>$B$6*R18</f>
+        <v>29916357.14285716</v>
+      </c>
+      <c r="T27" s="4">
+        <f>$B$6*S18</f>
+        <v>30415125.000000019</v>
+      </c>
+      <c r="U27" s="4">
+        <f>$B$6*T18</f>
+        <v>30913892.857142877</v>
+      </c>
+      <c r="V27" s="4">
+        <f>$B$6*U18</f>
+        <v>31412660.714285731</v>
+      </c>
+      <c r="W27" s="4">
+        <f>$B$6*V18</f>
+        <v>31911428.571428593</v>
+      </c>
+      <c r="X27" s="4">
+        <f>$B$6*W18</f>
+        <v>32410196.428571451</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>$B$6*X18</f>
+        <v>32908964.285714306</v>
+      </c>
+      <c r="Z27" s="4">
+        <f>$B$6*Y18</f>
+        <v>33407732.142857164</v>
+      </c>
+      <c r="AA27" s="4">
+        <f>$B$6*Z18</f>
+        <v>33906500.000000022</v>
+      </c>
+      <c r="AB27" s="4">
+        <f>$B$6*AA18</f>
+        <v>34405267.857142881</v>
+      </c>
+      <c r="AC27" s="4">
+        <f>$B$6*AB18</f>
+        <v>34904035.714285739</v>
+      </c>
+      <c r="AD27" s="4">
+        <f>$B$6*AC18</f>
+        <v>35402803.571428597</v>
+      </c>
+      <c r="AE27" s="4">
+        <f>$B$6*AD18</f>
+        <v>35901571.428571455</v>
+      </c>
+      <c r="AF27" s="4">
+        <f>$B$6*AE18</f>
+        <v>36400339.285714321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <f>-$B$4*B14</f>
+        <v>-609696000</v>
+      </c>
+      <c r="D28" s="4">
+        <f>-$B$4*C14</f>
+        <v>-565662400</v>
+      </c>
+      <c r="E28" s="4">
+        <f>-$B$4*D14</f>
+        <v>-565662400</v>
+      </c>
+      <c r="F28" s="4">
+        <f>-$B$4*E14</f>
+        <v>-565662400</v>
+      </c>
+      <c r="G28" s="4">
+        <f>-$B$4*F14</f>
+        <v>-565662400</v>
+      </c>
+      <c r="H28" s="4">
+        <f>-$B$4*G14</f>
+        <v>-558888000</v>
+      </c>
+      <c r="I28" s="4">
+        <f>-$B$4*H14</f>
+        <v>-523792844.44444448</v>
+      </c>
+      <c r="J28" s="4">
+        <f>-$B$4*I14</f>
+        <v>-518820619.47169816</v>
+      </c>
+      <c r="K28" s="4">
+        <f>-$B$4*J14</f>
+        <v>-504692800.00000006</v>
+      </c>
+      <c r="L28" s="4">
+        <f>-$B$4*K14</f>
+        <v>-489450400</v>
+      </c>
+      <c r="M28" s="4">
+        <f>-$B$4*L14</f>
+        <v>-457272000</v>
+      </c>
+      <c r="N28" s="4">
+        <f>-$B$4*M14</f>
+        <v>-461103291.22209412</v>
+      </c>
+      <c r="O28" s="4">
+        <f>-$B$4*N14</f>
+        <v>-449104533.85819769</v>
+      </c>
+      <c r="P28" s="4">
+        <f>-$B$4*O14</f>
+        <v>-432708031.88354611</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>-$B$4*P14</f>
+        <v>-415382299.67685068</v>
+      </c>
+      <c r="R28" s="4">
+        <f>-$B$4*Q14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="S28" s="4">
+        <f>-$B$4*R14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="T28" s="4">
+        <f>-$B$4*S14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="U28" s="4">
+        <f>-$B$4*T14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="V28" s="4">
+        <f>-$B$4*U14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="W28" s="4">
+        <f>-$B$4*V14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="X28" s="4">
+        <f>-$B$4*W14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>-$B$4*X14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>-$B$4*Y14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AA28" s="4">
+        <f>-$B$4*Z14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AB28" s="4">
+        <f>-$B$4*AA14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AC28" s="4">
+        <f>-$B$4*AB14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AD28" s="4">
+        <f>-$B$4*AC14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AE28" s="4">
+        <f>-$B$4*AD14</f>
+        <v>-406464000</v>
+      </c>
+      <c r="AF28" s="4">
+        <f>-$B$4*AE14</f>
+        <v>-406464000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:AF29" si="19">SUM(C25:C28)</f>
+        <v>654574793.42370415</v>
+      </c>
+      <c r="D29" s="6">
+        <f>SUM(D25:D28)</f>
+        <v>798662486.36346912</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="19"/>
+        <v>917616579.3032341</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="19"/>
+        <v>939820672.24299908</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="19"/>
+        <v>944024765.18276453</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="19"/>
+        <v>963227410.5842855</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="19"/>
+        <v>998821333.996984</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="19"/>
+        <v>1004292326.8268732</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="19"/>
+        <v>1018918914.1557143</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="19"/>
+        <v>1034660082.012857</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="19"/>
+        <v>1067337249.8699999</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="19"/>
+        <v>1078056379.1322069</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="19"/>
+        <v>1094259834.7164526</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="19"/>
+        <v>1114861034.9114532</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="19"/>
+        <v>1136391465.3384986</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="19"/>
+        <v>1149514463.2356985</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" si="19"/>
+        <v>1153719161.4560475</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="19"/>
+        <v>1157923859.6763968</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="19"/>
+        <v>1161769280.2802768</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" si="19"/>
+        <v>1165827135.0726252</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="19"/>
+        <v>1170074488.6229694</v>
+      </c>
+      <c r="X29" s="6">
+        <f t="shared" si="19"/>
+        <v>1174468066.7876003</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="19"/>
+        <v>1178933901.5963845</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="19"/>
+        <v>1183351734.3367465</v>
+      </c>
+      <c r="AA29" s="6">
+        <f t="shared" si="19"/>
+        <v>1187531449.366514</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="19"/>
+        <v>1201907167.7031429</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" si="19"/>
+        <v>1202405935.5602858</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="19"/>
+        <v>1202904703.4174285</v>
+      </c>
+      <c r="AE29" s="6">
+        <f t="shared" si="19"/>
+        <v>1207003471.2745714</v>
+      </c>
+      <c r="AF29" s="6">
+        <f t="shared" si="19"/>
+        <v>1251152239.1317143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4">
+        <v>520000000</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4">
+        <f>-B22</f>
+        <v>-8100000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6">
+        <f>SUM(B29:B31)</f>
+        <v>-7580000000</v>
+      </c>
+      <c r="C32" s="6">
+        <f>SUM(C29:C31)</f>
+        <v>654574793.42370415</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:L32" si="20">SUM(D29:D31)</f>
+        <v>798662486.36346912</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="20"/>
+        <v>917616579.3032341</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="20"/>
+        <v>939820672.24299908</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="20"/>
+        <v>944024765.18276453</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="20"/>
+        <v>963227410.5842855</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="20"/>
+        <v>998821333.996984</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="20"/>
+        <v>1004292326.8268732</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="20"/>
+        <v>1018918914.1557143</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="20"/>
+        <v>1034660082.012857</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32:N32" si="21">SUM(M29:M31)</f>
+        <v>1067337249.8699999</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="21"/>
+        <v>1078056379.1322069</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:Q32" si="22">SUM(O29:O31)</f>
+        <v>1094259834.7164526</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="22"/>
-        <v>1066500000</v>
-      </c>
-      <c r="F34" s="4">
+        <v>1114861034.9114532</v>
+      </c>
+      <c r="Q32" s="6">
         <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="L34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="R34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="S34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="T34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="V34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="W34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="X34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="Y34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="Z34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="AA34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="AB34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="AC34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="AD34" s="4">
-        <f t="shared" si="22"/>
-        <v>1084500000</v>
-      </c>
-      <c r="AE34" s="4">
-        <f t="shared" si="22"/>
-        <v>1088100000</v>
-      </c>
-      <c r="AF34" s="4">
-        <f t="shared" si="22"/>
-        <v>1131750000</v>
+        <v>1136391465.3384986</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" ref="R32:V32" si="23">SUM(R29:R31)</f>
+        <v>1149514463.2356985</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="23"/>
+        <v>1153719161.4560475</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="23"/>
+        <v>1157923859.6763968</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="23"/>
+        <v>1161769280.2802768</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" si="23"/>
+        <v>1165827135.0726252</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" ref="W32:AF32" si="24">SUM(W29:W31)</f>
+        <v>1170074488.6229694</v>
+      </c>
+      <c r="X32" s="6">
+        <f t="shared" si="24"/>
+        <v>1174468066.7876003</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="24"/>
+        <v>1178933901.5963845</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="24"/>
+        <v>1183351734.3367465</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" si="24"/>
+        <v>1187531449.366514</v>
+      </c>
+      <c r="AB32" s="6">
+        <f t="shared" si="24"/>
+        <v>1201907167.7031429</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="24"/>
+        <v>1202405935.5602858</v>
+      </c>
+      <c r="AD32" s="6">
+        <f t="shared" si="24"/>
+        <v>1202904703.4174285</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" si="24"/>
+        <v>1207003471.2745714</v>
+      </c>
+      <c r="AF32" s="6">
+        <f t="shared" si="24"/>
+        <v>1251152239.1317143</v>
+      </c>
+      <c r="AG32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C32</f>
+        <v>654574793.42370415</v>
+      </c>
+      <c r="D33" s="4">
+        <f>C33+D32</f>
+        <v>1453237279.7871733</v>
+      </c>
+      <c r="E33" s="4">
+        <f>D33+E32</f>
+        <v>2370853859.0904074</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33:AF33" si="25">E33+F32</f>
+        <v>3310674531.3334064</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="25"/>
+        <v>4254699296.516171</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="25"/>
+        <v>5217926707.1004562</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="25"/>
+        <v>6216748041.0974407</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="25"/>
+        <v>7221040367.9243135</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="25"/>
+        <v>8239959282.0800276</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="25"/>
+        <v>9274619364.0928841</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="25"/>
+        <v>10341956613.962883</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="25"/>
+        <v>11420012993.095089</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="25"/>
+        <v>12514272827.811543</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="25"/>
+        <v>13629133862.722996</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="25"/>
+        <v>14765525328.061495</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="25"/>
+        <v>15915039791.297194</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="25"/>
+        <v>17068758952.753241</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="25"/>
+        <v>18226682812.429638</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="25"/>
+        <v>19388452092.709915</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="25"/>
+        <v>20554279227.782539</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="25"/>
+        <v>21724353716.40551</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="25"/>
+        <v>22898821783.193111</v>
+      </c>
+      <c r="Y33" s="4">
+        <f t="shared" si="25"/>
+        <v>24077755684.789497</v>
+      </c>
+      <c r="Z33" s="4">
+        <f t="shared" si="25"/>
+        <v>25261107419.126244</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="25"/>
+        <v>26448638868.492756</v>
+      </c>
+      <c r="AB33" s="4">
+        <f t="shared" si="25"/>
+        <v>27650546036.1959</v>
+      </c>
+      <c r="AC33" s="4">
+        <f t="shared" si="25"/>
+        <v>28852951971.756187</v>
+      </c>
+      <c r="AD33" s="4">
+        <f t="shared" si="25"/>
+        <v>30055856675.173615</v>
+      </c>
+      <c r="AE33" s="4">
+        <f t="shared" si="25"/>
+        <v>31262860146.448185</v>
+      </c>
+      <c r="AF33" s="4">
+        <f t="shared" si="25"/>
+        <v>32514012385.579899</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" ref="C35:AF35" si="23">$B$6*B18</f>
-        <v>22100000</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="23"/>
-        <v>22525000</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="23"/>
-        <v>22950000</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="23"/>
-        <v>23375000</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="23"/>
-        <v>23800000</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="23"/>
-        <v>24225000</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="23"/>
-        <v>24650000</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="23"/>
-        <v>25075000</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="23"/>
-        <v>25500000</v>
-      </c>
-      <c r="L35" s="4">
-        <f t="shared" si="23"/>
-        <v>25925000</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="23"/>
-        <v>26350000</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="23"/>
-        <v>26775000</v>
-      </c>
-      <c r="O35" s="4">
-        <f t="shared" si="23"/>
-        <v>27200000</v>
-      </c>
-      <c r="P35" s="4">
-        <f t="shared" si="23"/>
-        <v>27625000</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="23"/>
-        <v>28050000</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="T35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="V35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="W35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="X35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="Y35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="Z35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AA35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AB35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AC35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AD35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AE35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
-      </c>
-      <c r="AF35" s="4">
-        <f t="shared" si="23"/>
-        <v>28475000</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <f>NPV(E2,C32:AF32)+B32</f>
+        <v>10430498073.587837</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" ref="C36:AF36" si="24">-$B$4*B14</f>
-        <v>-609696000</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="24"/>
-        <v>-565662400</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="24"/>
-        <v>-565662400</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="24"/>
-        <v>-565662400</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="24"/>
-        <v>-565662400</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="24"/>
-        <v>-558888000</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="24"/>
-        <v>-523792844.44444448</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="24"/>
-        <v>-518820619.47169816</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="24"/>
-        <v>-504692800.00000006</v>
-      </c>
-      <c r="L36" s="4">
-        <f t="shared" si="24"/>
-        <v>-489450400</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="24"/>
-        <v>-457272000</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="24"/>
-        <v>-461103291.22209412</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" si="24"/>
-        <v>-449104533.85819769</v>
-      </c>
-      <c r="P36" s="4">
-        <f t="shared" si="24"/>
-        <v>-432708031.88354611</v>
-      </c>
-      <c r="Q36" s="4">
-        <f t="shared" si="24"/>
-        <v>-415382299.67685068</v>
-      </c>
-      <c r="R36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="T36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="V36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="W36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="X36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="Y36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="Z36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AA36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AB36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AC36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AD36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AE36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
-      <c r="AF36" s="4">
-        <f t="shared" si="24"/>
-        <v>-406464000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B36" s="31">
+        <f>IRR(B32:AF32)</f>
+        <v>0.12322093910289489</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6">
-        <f>SUM(C33:C36)</f>
-        <v>643927181.70000005</v>
-      </c>
-      <c r="D37" s="6">
-        <f>SUM(D33:D36)</f>
-        <v>784235781.70000005</v>
-      </c>
-      <c r="E37" s="6">
-        <f>SUM(E33:E36)</f>
-        <v>899410781.70000005</v>
-      </c>
-      <c r="F37" s="6">
-        <f>SUM(F33:F36)</f>
-        <v>917835781.70000005</v>
-      </c>
-      <c r="G37" s="6">
-        <f>SUM(G33:G36)</f>
-        <v>918260781.70000005</v>
-      </c>
-      <c r="H37" s="6">
-        <f>SUM(H33:H36)</f>
-        <v>925460181.70000005</v>
-      </c>
-      <c r="I37" s="6">
-        <f>SUM(I33:I36)</f>
-        <v>960980337.25555563</v>
-      </c>
-      <c r="J37" s="6">
-        <f>SUM(J33:J36)</f>
-        <v>966377562.22830188</v>
-      </c>
-      <c r="K37" s="6">
-        <f>SUM(K33:K36)</f>
-        <v>980930381.70000005</v>
-      </c>
-      <c r="L37" s="6">
-        <f>SUM(L33:L36)</f>
-        <v>996597781.70000005</v>
-      </c>
-      <c r="M37" s="6">
-        <f>SUM(M33:M36)</f>
-        <v>1029201181.7</v>
-      </c>
-      <c r="N37" s="6">
-        <f>SUM(N33:N36)</f>
-        <v>1025794890.477906</v>
-      </c>
-      <c r="O37" s="6">
-        <f>SUM(O33:O36)</f>
-        <v>1038218647.8418024</v>
-      </c>
-      <c r="P37" s="6">
-        <f>SUM(P33:P36)</f>
-        <v>1055040149.8164539</v>
-      </c>
-      <c r="Q37" s="6">
-        <f>SUM(Q33:Q36)</f>
-        <v>1072790882.0231494</v>
-      </c>
-      <c r="R37" s="6">
-        <f>SUM(R33:R36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="S37" s="6">
-        <f>SUM(S33:S36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="T37" s="6">
-        <f>SUM(T33:T36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="U37" s="6">
-        <f>SUM(U33:U36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="V37" s="6">
-        <f>SUM(V33:V36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="W37" s="6">
-        <f>SUM(W33:W36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="X37" s="6">
-        <f>SUM(X33:X36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="Y37" s="6">
-        <f>SUM(Y33:Y36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="Z37" s="6">
-        <f>SUM(Z33:Z36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="AA37" s="6">
-        <f>SUM(AA33:AA36)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="AB37" s="6">
-        <f>SUM(AB33:AB36)</f>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AC37" s="6">
-        <f>SUM(AC33:AC36)</f>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AD37" s="6">
-        <f>SUM(AD33:AD36)</f>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AE37" s="6">
-        <f>SUM(AE33:AE36)</f>
-        <v>1143522363.5</v>
-      </c>
-      <c r="AF37" s="6">
-        <f>SUM(AF33:AF36)</f>
-        <v>1187172363.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="4">
-        <v>520000000</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4">
-        <f>-B22</f>
-        <v>-8100000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="6">
-        <f>SUM(B37:B39)</f>
-        <v>-7580000000</v>
-      </c>
-      <c r="C40" s="6">
-        <f>SUM(C37:C39)</f>
-        <v>643927181.70000005</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" ref="D40:L40" si="25">SUM(D37:D39)</f>
-        <v>784235781.70000005</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="25"/>
-        <v>899410781.70000005</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="25"/>
-        <v>917835781.70000005</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="25"/>
-        <v>918260781.70000005</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="25"/>
-        <v>925460181.70000005</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="25"/>
-        <v>960980337.25555563</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="25"/>
-        <v>966377562.22830188</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="25"/>
-        <v>980930381.70000005</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="25"/>
-        <v>996597781.70000005</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" ref="M40:N40" si="26">SUM(M37:M39)</f>
-        <v>1029201181.7</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="26"/>
-        <v>1025794890.477906</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" ref="O40:Q40" si="27">SUM(O37:O39)</f>
-        <v>1038218647.8418024</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" si="27"/>
-        <v>1055040149.8164539</v>
-      </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="27"/>
-        <v>1072790882.0231494</v>
-      </c>
-      <c r="R40" s="6">
-        <f t="shared" ref="R40:V40" si="28">SUM(R37:R39)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="S40" s="6">
-        <f t="shared" si="28"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="T40" s="6">
-        <f t="shared" si="28"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="U40" s="6">
-        <f t="shared" si="28"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="V40" s="6">
-        <f t="shared" si="28"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" ref="W40:AF40" si="29">SUM(W37:W39)</f>
-        <v>1082134181.7</v>
-      </c>
-      <c r="X40" s="6">
-        <f t="shared" si="29"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="Y40" s="6">
-        <f t="shared" si="29"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="Z40" s="6">
-        <f t="shared" si="29"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="29"/>
-        <v>1082134181.7</v>
-      </c>
-      <c r="AB40" s="6">
-        <f t="shared" si="29"/>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AC40" s="6">
-        <f t="shared" si="29"/>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AD40" s="6">
-        <f t="shared" si="29"/>
-        <v>1139922363.5</v>
-      </c>
-      <c r="AE40" s="6">
-        <f t="shared" si="29"/>
-        <v>1143522363.5</v>
-      </c>
-      <c r="AF40" s="6">
-        <f t="shared" si="29"/>
-        <v>1187172363.5</v>
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="32">
+        <f>(-B32-L33)/M32+L24</f>
+        <v>8.4122924930247809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="21" x14ac:dyDescent="0.65">
+      <c r="A40" s="52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="4">
-        <f>C40</f>
-        <v>643927181.70000005</v>
-      </c>
-      <c r="D41" s="4">
-        <f>C41+D40</f>
-        <v>1428162963.4000001</v>
-      </c>
-      <c r="E41" s="4">
-        <f>D41+E40</f>
-        <v>2327573745.1000004</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" ref="F41:AF41" si="30">E41+F40</f>
-        <v>3245409526.8000002</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="30"/>
-        <v>4163670308.5</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="30"/>
-        <v>5089130490.1999998</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="30"/>
-        <v>6050110827.455555</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="30"/>
-        <v>7016488389.683857</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="30"/>
-        <v>7997418771.3838568</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="30"/>
-        <v>8994016553.0838566</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="30"/>
-        <v>10023217734.783857</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="30"/>
-        <v>11049012625.261763</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="30"/>
-        <v>12087231273.103565</v>
-      </c>
-      <c r="P41" s="4">
-        <f t="shared" si="30"/>
-        <v>13142271422.920019</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="30"/>
-        <v>14215062304.943169</v>
-      </c>
-      <c r="R41" s="4">
-        <f t="shared" si="30"/>
-        <v>15297196486.643169</v>
-      </c>
-      <c r="S41" s="4">
-        <f t="shared" si="30"/>
-        <v>16379330668.34317</v>
-      </c>
-      <c r="T41" s="4">
-        <f t="shared" si="30"/>
-        <v>17461464850.043171</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="30"/>
-        <v>18543599031.743172</v>
-      </c>
-      <c r="V41" s="4">
-        <f t="shared" si="30"/>
-        <v>19625733213.443172</v>
-      </c>
-      <c r="W41" s="4">
-        <f t="shared" si="30"/>
-        <v>20707867395.143173</v>
-      </c>
-      <c r="X41" s="4">
-        <f t="shared" si="30"/>
-        <v>21790001576.843174</v>
-      </c>
-      <c r="Y41" s="4">
-        <f t="shared" si="30"/>
-        <v>22872135758.543175</v>
-      </c>
-      <c r="Z41" s="4">
-        <f t="shared" si="30"/>
-        <v>23954269940.243176</v>
-      </c>
-      <c r="AA41" s="4">
-        <f t="shared" si="30"/>
-        <v>25036404121.943176</v>
-      </c>
-      <c r="AB41" s="4">
-        <f t="shared" si="30"/>
-        <v>26176326485.443176</v>
-      </c>
-      <c r="AC41" s="4">
-        <f t="shared" si="30"/>
-        <v>27316248848.943176</v>
-      </c>
-      <c r="AD41" s="4">
-        <f t="shared" si="30"/>
-        <v>28456171212.443176</v>
-      </c>
-      <c r="AE41" s="4">
-        <f t="shared" si="30"/>
-        <v>29599693575.943176</v>
-      </c>
-      <c r="AF41" s="4">
-        <f t="shared" si="30"/>
-        <v>30786865939.443176</v>
-      </c>
+      <c r="A41" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A42" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="11">
-        <f>NPV(E2,C40:AF40)+B40</f>
-        <v>9564031197.1472435</v>
-      </c>
+      <c r="A43" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="31">
-        <f>IRR(B40:AF40)</f>
-        <v>0.11841700379290909</v>
+      <c r="A44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="32">
-        <f>(-B40-L41)/M40+L32</f>
-        <v>8.6261028667415331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="15"/>
-      <c r="B52" s="28"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="A45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="51"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
     </row>
@@ -2953,16 +3443,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{10443DB9-59E6-4D9D-B0AC-86C86709FFD3}"/>
+    <hyperlink ref="C42" r:id="rId2" xr:uid="{10BC2E6B-3F0E-4777-B326-8F27988E935F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48ED72-E7D4-4B97-8EBC-A6550B96EAB3}">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2987,7 +3481,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>8760</v>
@@ -3004,31 +3498,31 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10">
         <f>116*B2</f>
         <v>1016160</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="29">
         <f>B3*1000</f>
         <v>1016160000</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="29">
         <v>11</v>
@@ -3039,13 +3533,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10">
         <v>450000</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10">
         <v>10</v>
@@ -3055,7 +3549,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10">
         <v>850</v>
@@ -3065,7 +3559,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="12">
         <v>5778818.1799999997</v>
@@ -3086,7 +3580,7 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19">
         <v>45658</v>
@@ -3184,7 +3678,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="16">
         <v>1902</v>
@@ -3282,7 +3776,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="16">
         <v>713</v>
@@ -3380,9 +3874,9 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="44">
+        <v>14</v>
+      </c>
+      <c r="B13" s="42">
         <v>2043</v>
       </c>
       <c r="C13" s="36">
@@ -3478,7 +3972,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="28">
         <v>0.6</v>
@@ -3576,7 +4070,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -3607,7 +4101,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -3643,227 +4137,227 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="40">
-        <v>65</v>
-      </c>
-      <c r="C17" s="40">
-        <v>65</v>
-      </c>
-      <c r="D17" s="40">
-        <v>65</v>
-      </c>
-      <c r="E17" s="40">
-        <v>65</v>
-      </c>
-      <c r="F17" s="40">
-        <v>65</v>
-      </c>
-      <c r="G17" s="40">
-        <v>65</v>
-      </c>
-      <c r="H17" s="40">
-        <v>65</v>
-      </c>
-      <c r="I17" s="40">
-        <v>65</v>
-      </c>
-      <c r="J17" s="40">
-        <v>65</v>
-      </c>
-      <c r="K17" s="40">
-        <v>65</v>
-      </c>
-      <c r="L17" s="40">
-        <v>65</v>
-      </c>
-      <c r="M17" s="40">
-        <v>65</v>
-      </c>
-      <c r="N17" s="40">
-        <v>65</v>
-      </c>
-      <c r="O17" s="40">
-        <v>65</v>
-      </c>
-      <c r="P17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="40">
-        <v>65</v>
-      </c>
-      <c r="R17" s="40">
-        <v>65</v>
-      </c>
-      <c r="S17" s="40">
-        <v>65</v>
-      </c>
-      <c r="T17" s="40">
-        <v>65</v>
-      </c>
-      <c r="U17" s="40">
-        <v>65</v>
-      </c>
-      <c r="V17" s="40">
-        <v>65</v>
-      </c>
-      <c r="W17" s="40">
-        <v>65</v>
-      </c>
-      <c r="X17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="40">
-        <v>65</v>
-      </c>
-      <c r="Z17" s="40">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AB17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AD17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AE17" s="41">
-        <v>75</v>
-      </c>
-      <c r="AF17" s="41">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="43">
+        <v>66.870891237338171</v>
+      </c>
+      <c r="C17" s="43">
+        <v>67.512082042656473</v>
+      </c>
+      <c r="D17" s="43">
+        <v>68.153272847974776</v>
+      </c>
+      <c r="E17" s="43">
+        <v>68.794463653293064</v>
+      </c>
+      <c r="F17" s="43">
+        <v>69.435654458611381</v>
+      </c>
+      <c r="G17" s="47">
+        <v>71.5</v>
+      </c>
+      <c r="H17" s="43">
+        <v>71.5</v>
+      </c>
+      <c r="I17" s="43">
+        <v>71.5</v>
+      </c>
+      <c r="J17" s="43">
+        <v>71.5</v>
+      </c>
+      <c r="K17" s="43">
+        <v>71.5</v>
+      </c>
+      <c r="L17" s="48">
+        <v>71.5</v>
+      </c>
+      <c r="M17" s="43">
+        <v>73.93157894736845</v>
+      </c>
+      <c r="N17" s="43">
+        <v>74.572874493927145</v>
+      </c>
+      <c r="O17" s="43">
+        <v>75.214170040485854</v>
+      </c>
+      <c r="P17" s="43">
+        <v>75.855465587044577</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>76.496761133603286</v>
+      </c>
+      <c r="R17" s="43">
+        <v>77.138056680161966</v>
+      </c>
+      <c r="S17" s="43">
+        <v>77.779352226720661</v>
+      </c>
+      <c r="T17" s="43">
+        <v>78.358476304082956</v>
+      </c>
+      <c r="U17" s="43">
+        <v>78.974361217632094</v>
+      </c>
+      <c r="V17" s="43">
+        <v>79.623038088306998</v>
+      </c>
+      <c r="W17" s="43">
+        <v>80.297018508900166</v>
+      </c>
+      <c r="X17" s="43">
+        <v>80.983502635597731</v>
+      </c>
+      <c r="Y17" s="43">
+        <v>81.661680207749569</v>
+      </c>
+      <c r="Z17" s="43">
+        <v>82.29865251903702</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>84.7</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>84.7</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>84.7</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>84.7</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>84.7</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>84.7</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
         <f>26*1000</f>
         <v>26000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f>B18+(0.5*1000)</f>
         <v>26500</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f t="shared" ref="D18:P18" si="0">C18+(0.5*1000)</f>
         <v>27000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>30500</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
         <v>31000</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <f t="shared" si="0"/>
         <v>31500</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <f>P18+(0.5*1000)</f>
         <v>33500</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <f>$Q$18</f>
         <v>33500</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <f t="shared" ref="S18:AF18" si="1">$Q$18</f>
         <v>33500</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="3">
         <f t="shared" si="1"/>
         <v>33500</v>
       </c>
@@ -3885,499 +4379,584 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B32" s="7">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B33" s="7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C32" s="7">
-        <f>B32+1</f>
+      <c r="C33" s="7">
+        <f>B33+1</f>
         <v>1</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" ref="D32:AF32" si="2">C32+1</f>
+      <c r="D33" s="7">
+        <f t="shared" ref="D33:AF33" si="2">C33+1</f>
         <v>2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K33" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L33" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O33" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P33" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q33" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R33" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S33" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T33" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U33" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V33" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W33" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X33" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y33" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="Z32" s="7">
+      <c r="Z33" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AA33" s="7">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB33" s="7">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AC33" s="7">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AD33" s="7">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AE33" s="7">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AF33" s="7">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-    </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4">
         <f>-$B$5*B11</f>
         <v>-855900000</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" ref="D34:AF34" si="3">-$B$5*C11</f>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:AF35" si="3">-$B$5*C11</f>
         <v>-951750000</v>
       </c>
-      <c r="E34" s="4">
-        <f>-$B$5*D11</f>
+      <c r="E35" s="4">
+        <f t="shared" si="3"/>
         <v>-1066500000</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Y35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="Z35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AA35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="AB34" s="4">
+      <c r="AB35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="AC34" s="4">
+      <c r="AC35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="AD34" s="4">
+      <c r="AD35" s="4">
         <f t="shared" si="3"/>
         <v>-1084500000</v>
       </c>
-      <c r="AE34" s="4">
+      <c r="AE35" s="4">
         <f t="shared" si="3"/>
         <v>-1088100000</v>
       </c>
-      <c r="AF34" s="4">
+      <c r="AF35" s="4">
         <f t="shared" si="3"/>
         <v>-1131750000</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4">
-        <f>-$B$6*B18</f>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:AF36" si="4">-$B$6*B18</f>
         <v>-22100000</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" ref="D35:AF35" si="4">-$B$6*C18</f>
+      <c r="D36" s="4">
+        <f t="shared" si="4"/>
         <v>-22525000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f t="shared" si="4"/>
         <v>-22950000</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <f t="shared" si="4"/>
         <v>-23375000</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <f t="shared" si="4"/>
         <v>-23800000</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <f t="shared" si="4"/>
         <v>-24225000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <f t="shared" si="4"/>
         <v>-24650000</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="4"/>
         <v>-25075000</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="4">
         <f t="shared" si="4"/>
         <v>-25500000</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L36" s="4">
         <f t="shared" si="4"/>
         <v>-25925000</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="4">
         <f t="shared" si="4"/>
         <v>-26350000</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <f t="shared" si="4"/>
         <v>-26775000</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O36" s="4">
         <f t="shared" si="4"/>
         <v>-27200000</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P36" s="4">
         <f t="shared" si="4"/>
         <v>-27625000</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q36" s="4">
         <f t="shared" si="4"/>
         <v>-28050000</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AA36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AB35" s="4">
+      <c r="AB36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AC35" s="4">
+      <c r="AC36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AD35" s="4">
+      <c r="AD36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AE35" s="4">
+      <c r="AE36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
-      <c r="AF35" s="4">
+      <c r="AF36" s="4">
         <f t="shared" si="4"/>
         <v>-28475000</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-    </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="6">
-        <f>SUM(C33:C37)</f>
+        <f t="shared" ref="C38:AF38" si="5">SUM(C34:C37)</f>
         <v>-878000000</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:AF38" si="5">SUM(D33:D37)</f>
+        <f t="shared" si="5"/>
         <v>-974275000</v>
       </c>
       <c r="E38" s="6">
@@ -4495,319 +5074,289 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B39" s="44">
+        <f>8100000000</f>
+        <v>8100000000</v>
+      </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4">
+        <f>8100000000</f>
+        <v>8100000000</v>
+      </c>
+      <c r="C40" s="6">
+        <f>SUM(C38:C39)</f>
+        <v>-878000000</v>
+      </c>
+      <c r="D40" s="6">
+        <f>SUM(D38:D39)</f>
+        <v>-974275000</v>
+      </c>
+      <c r="E40" s="6">
+        <f>SUM(E38:E39)</f>
+        <v>-1089450000</v>
+      </c>
+      <c r="F40" s="6">
+        <f>SUM(F38:F39)</f>
+        <v>-1107875000</v>
+      </c>
+      <c r="G40" s="6">
+        <f>SUM(G38:G39)</f>
+        <v>-1108300000</v>
+      </c>
+      <c r="H40" s="6">
+        <f>SUM(H38:H39)</f>
+        <v>-1108725000</v>
+      </c>
+      <c r="I40" s="6">
+        <f>SUM(I38:I39)</f>
+        <v>-1109150000</v>
+      </c>
+      <c r="J40" s="6">
+        <f>SUM(J38:J39)</f>
+        <v>-1109575000</v>
+      </c>
+      <c r="K40" s="6">
+        <f>SUM(K38:K39)</f>
+        <v>-1110000000</v>
+      </c>
+      <c r="L40" s="6">
+        <f>SUM(L38:L39)</f>
+        <v>-1110425000</v>
+      </c>
+      <c r="M40" s="6">
+        <f>SUM(M38:M39)</f>
+        <v>-1110850000</v>
+      </c>
+      <c r="N40" s="6">
+        <f>SUM(N38:N39)</f>
+        <v>-1111275000</v>
+      </c>
+      <c r="O40" s="6">
+        <f>SUM(O38:O39)</f>
+        <v>-1111700000</v>
+      </c>
+      <c r="P40" s="6">
+        <f>SUM(P38:P39)</f>
+        <v>-1112125000</v>
+      </c>
+      <c r="Q40" s="6">
+        <f>SUM(Q38:Q39)</f>
+        <v>-1112550000</v>
+      </c>
+      <c r="R40" s="6">
+        <f>SUM(R38:R39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="S40" s="6">
+        <f>SUM(S38:S39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="T40" s="6">
+        <f>SUM(T38:T39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="U40" s="6">
+        <f>SUM(U38:U39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="V40" s="6">
+        <f>SUM(V38:V39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="W40" s="6">
+        <f>SUM(W38:W39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="X40" s="6">
+        <f>SUM(X38:X39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="Y40" s="6">
+        <f>SUM(Y38:Y39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="Z40" s="6">
+        <f>SUM(Z38:Z39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="AA40" s="6">
+        <f>SUM(AA38:AA39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="AB40" s="6">
+        <f>SUM(AB38:AB39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="AC40" s="6">
+        <f>SUM(AC38:AC39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="AD40" s="6">
+        <f>SUM(AD38:AD39)</f>
+        <v>-1112975000</v>
+      </c>
+      <c r="AE40" s="6">
+        <f>SUM(AE38:AE39)</f>
+        <v>-1116575000</v>
+      </c>
+      <c r="AF40" s="6">
+        <f>SUM(AF38:AF39)</f>
+        <v>-1160225000</v>
+      </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <f>SUM(C38:C40)</f>
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C40</f>
         <v>-878000000</v>
       </c>
-      <c r="D41" s="6">
-        <f t="shared" ref="D41:AF41" si="6">SUM(D38:D40)</f>
-        <v>-974275000</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="D41" s="4">
+        <f>C41+D40</f>
+        <v>-1852275000</v>
+      </c>
+      <c r="E41" s="4">
+        <f>D41+E40</f>
+        <v>-2941725000</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" ref="F41:AF41" si="6">E41+F40</f>
+        <v>-4049600000</v>
+      </c>
+      <c r="G41" s="4">
         <f t="shared" si="6"/>
-        <v>-1089450000</v>
-      </c>
-      <c r="F41" s="6">
+        <v>-5157900000</v>
+      </c>
+      <c r="H41" s="4">
         <f t="shared" si="6"/>
-        <v>-1107875000</v>
-      </c>
-      <c r="G41" s="6">
+        <v>-6266625000</v>
+      </c>
+      <c r="I41" s="4">
+        <f>H41+I40</f>
+        <v>-7375775000</v>
+      </c>
+      <c r="J41" s="4">
         <f t="shared" si="6"/>
-        <v>-1108300000</v>
-      </c>
-      <c r="H41" s="6">
+        <v>-8485350000</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="6"/>
-        <v>-1108725000</v>
-      </c>
-      <c r="I41" s="6">
+        <v>-9595350000</v>
+      </c>
+      <c r="L41" s="4">
         <f t="shared" si="6"/>
-        <v>-1109150000</v>
-      </c>
-      <c r="J41" s="6">
+        <v>-10705775000</v>
+      </c>
+      <c r="M41" s="4">
         <f t="shared" si="6"/>
-        <v>-1109575000</v>
-      </c>
-      <c r="K41" s="6">
+        <v>-11816625000</v>
+      </c>
+      <c r="N41" s="4">
         <f t="shared" si="6"/>
-        <v>-1110000000</v>
-      </c>
-      <c r="L41" s="6">
+        <v>-12927900000</v>
+      </c>
+      <c r="O41" s="4">
         <f t="shared" si="6"/>
-        <v>-1110425000</v>
-      </c>
-      <c r="M41" s="6">
+        <v>-14039600000</v>
+      </c>
+      <c r="P41" s="4">
         <f t="shared" si="6"/>
-        <v>-1110850000</v>
-      </c>
-      <c r="N41" s="6">
+        <v>-15151725000</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="6"/>
-        <v>-1111275000</v>
-      </c>
-      <c r="O41" s="6">
+        <v>-16264275000</v>
+      </c>
+      <c r="R41" s="4">
         <f t="shared" si="6"/>
-        <v>-1111700000</v>
-      </c>
-      <c r="P41" s="6">
+        <v>-17377250000</v>
+      </c>
+      <c r="S41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112125000</v>
-      </c>
-      <c r="Q41" s="6">
+        <v>-18490225000</v>
+      </c>
+      <c r="T41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112550000</v>
-      </c>
-      <c r="R41" s="6">
+        <v>-19603200000</v>
+      </c>
+      <c r="U41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="S41" s="6">
+        <v>-20716175000</v>
+      </c>
+      <c r="V41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="T41" s="6">
+        <v>-21829150000</v>
+      </c>
+      <c r="W41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="U41" s="6">
+        <v>-22942125000</v>
+      </c>
+      <c r="X41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="V41" s="6">
+        <v>-24055100000</v>
+      </c>
+      <c r="Y41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="W41" s="6">
+        <v>-25168075000</v>
+      </c>
+      <c r="Z41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="X41" s="6">
+        <v>-26281050000</v>
+      </c>
+      <c r="AA41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="Y41" s="6">
+        <v>-27394025000</v>
+      </c>
+      <c r="AB41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="Z41" s="6">
+        <v>-28507000000</v>
+      </c>
+      <c r="AC41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="AA41" s="6">
+        <v>-29619975000</v>
+      </c>
+      <c r="AD41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="AB41" s="6">
+        <v>-30732950000</v>
+      </c>
+      <c r="AE41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="AC41" s="6">
+        <v>-31849525000</v>
+      </c>
+      <c r="AF41" s="4">
         <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="AD41" s="6">
-        <f t="shared" si="6"/>
-        <v>-1112975000</v>
-      </c>
-      <c r="AE41" s="6">
-        <f t="shared" si="6"/>
-        <v>-1116575000</v>
-      </c>
-      <c r="AF41" s="6">
-        <f t="shared" si="6"/>
-        <v>-1160225000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="4">
-        <f>C41</f>
-        <v>-878000000</v>
-      </c>
-      <c r="D42" s="4">
-        <f>C42+D41</f>
-        <v>-1852275000</v>
-      </c>
-      <c r="E42" s="4">
-        <f>D42+E41</f>
-        <v>-2941725000</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" ref="F42:AF42" si="7">E42+F41</f>
-        <v>-4049600000</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="7"/>
-        <v>-5157900000</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="7"/>
-        <v>-6266625000</v>
-      </c>
-      <c r="I42" s="4">
-        <f>H42+I41</f>
-        <v>-7375775000</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="7"/>
-        <v>-8485350000</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="7"/>
-        <v>-9595350000</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="7"/>
-        <v>-10705775000</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="7"/>
-        <v>-11816625000</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="7"/>
-        <v>-12927900000</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="7"/>
-        <v>-14039600000</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="7"/>
-        <v>-15151725000</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="7"/>
-        <v>-16264275000</v>
-      </c>
-      <c r="R42" s="4">
-        <f t="shared" si="7"/>
-        <v>-17377250000</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="7"/>
-        <v>-18490225000</v>
-      </c>
-      <c r="T42" s="4">
-        <f t="shared" si="7"/>
-        <v>-19603200000</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="7"/>
-        <v>-20716175000</v>
-      </c>
-      <c r="V42" s="4">
-        <f t="shared" si="7"/>
-        <v>-21829150000</v>
-      </c>
-      <c r="W42" s="4">
-        <f t="shared" si="7"/>
-        <v>-22942125000</v>
-      </c>
-      <c r="X42" s="4">
-        <f t="shared" si="7"/>
-        <v>-24055100000</v>
-      </c>
-      <c r="Y42" s="4">
-        <f t="shared" si="7"/>
-        <v>-25168075000</v>
-      </c>
-      <c r="Z42" s="4">
-        <f t="shared" si="7"/>
-        <v>-26281050000</v>
-      </c>
-      <c r="AA42" s="4">
-        <f t="shared" si="7"/>
-        <v>-27394025000</v>
-      </c>
-      <c r="AB42" s="4">
-        <f t="shared" si="7"/>
-        <v>-28507000000</v>
-      </c>
-      <c r="AC42" s="4">
-        <f t="shared" si="7"/>
-        <v>-29619975000</v>
-      </c>
-      <c r="AD42" s="4">
-        <f t="shared" si="7"/>
-        <v>-30732950000</v>
-      </c>
-      <c r="AE42" s="4">
-        <f t="shared" si="7"/>
-        <v>-31849525000</v>
-      </c>
-      <c r="AF42" s="4">
-        <f t="shared" si="7"/>
         <v>-33009750000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="27">
+        <f>NPV(E2,C40:L40)+B40</f>
+        <v>-531372380.11030388</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="27">
-        <f>NPV(E2,C41:AF41)</f>
-        <v>-18861536567.386581</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4817,10 +5366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DC21E-058F-482D-A8A2-6B9883F2C100}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4828,28 +5377,36 @@
     <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="40">
         <v>0.6</v>
       </c>
       <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="28">
@@ -4857,8 +5414,9 @@
       </c>
       <c r="C3" s="28"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
+        <f t="shared" ref="A4:A32" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="28">
@@ -4866,8 +5424,9 @@
       </c>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="28">
@@ -4875,8 +5434,9 @@
       </c>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="28">
@@ -4884,8 +5444,9 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="28">
@@ -4893,8 +5454,9 @@
       </c>
       <c r="C7" s="28"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="28">
@@ -4902,8 +5464,9 @@
       </c>
       <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="28">
@@ -4911,8 +5474,9 @@
       </c>
       <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="28">
@@ -4920,8 +5484,9 @@
       </c>
       <c r="C10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="28">
@@ -4929,17 +5494,19 @@
       </c>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="40">
         <v>0.45</v>
       </c>
       <c r="C12" s="28"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="28">
@@ -4947,8 +5514,9 @@
       </c>
       <c r="C13" s="28"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="28">
@@ -4956,8 +5524,9 @@
       </c>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="28">
@@ -4965,8 +5534,9 @@
       </c>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="28">
@@ -4975,14 +5545,16 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="28">
@@ -4991,6 +5563,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="28">
@@ -4999,6 +5572,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="28">
@@ -5007,6 +5581,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="28">
@@ -5015,6 +5590,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="28">
@@ -5023,6 +5599,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="28">
@@ -5031,6 +5608,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="28">
@@ -5039,6 +5617,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="28">
@@ -5047,6 +5626,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="28">
@@ -5055,14 +5635,16 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="40">
         <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="28">
@@ -5071,6 +5653,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="28">
@@ -5079,6 +5662,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="28">
@@ -5087,129 +5671,203 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="28">
         <v>0.4</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7504A1F3-5A59-48E3-8E0A-21CBD5C741D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66269A21-A848-42A9-8F74-BAC8A0ED050A}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="43">
+        <v>66.870891237338171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="43">
+        <v>67.512082042656473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A31" si="0">A3+1</f>
+        <f t="shared" ref="A4:A32" si="0">A3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="43">
+        <v>68.153272847974776</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="43">
+        <v>68.794463653293064</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="43">
+        <v>69.435654458611381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="45">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="43">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="43">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="43">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="43">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="45">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="43">
+        <v>73.93157894736845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="43">
+        <v>74.572874493927145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="43">
+        <v>75.214170040485854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="B16" s="43">
+        <v>75.855465587044577</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -5217,68 +5875,98 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17" s="43">
+        <v>76.496761133603286</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18" s="43">
+        <v>77.138056680161966</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B19" s="43">
+        <v>77.779352226720661</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B20" s="43">
+        <v>78.358476304082956</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21" s="43">
+        <v>78.974361217632094</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22" s="43">
+        <v>79.623038088306998</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23" s="43">
+        <v>80.297018508900166</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24" s="43">
+        <v>80.983502635597731</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25" s="43">
+        <v>81.661680207749569</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26" s="43">
+        <v>82.29865251903702</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="43">
-        <v>75</v>
+      <c r="B27" s="45">
+        <v>84.7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -5286,448 +5974,628 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28" s="45">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29" s="45">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30" s="45">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31" s="45">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="45">
+        <v>84.7</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="downloads. " xr:uid="{F134F609-FC49-4829-AD03-29ACC9E50AE3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADE417E-D27D-4B4F-8D6E-CB834DBE5103}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.46484375" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
-        <f>2018</f>
-        <v>2018</v>
-      </c>
-      <c r="B2" s="43">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
         <v>21.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f>B2*$F$4</f>
+        <v>21940</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A9" si="0">A2+1</f>
-        <v>2019</v>
-      </c>
-      <c r="B3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41">
         <v>22.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <f>B3*$F$4</f>
+        <v>22270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41">
         <v>22.69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <f>B4*$F$4</f>
+        <v>22690</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41">
         <v>23.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <f>B5*$F$4</f>
+        <v>23480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B6" s="43">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41">
         <v>23.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <f>B6*$F$4</f>
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41">
         <v>24.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <f>B7*$F$4</f>
+        <v>24460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="B8" s="43">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41">
         <v>25.59</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C8" s="16">
+        <f>B8*$F$4</f>
+        <v>25590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>2025</v>
+        <f>A8+1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A9,B2:B8,A2:A8)</f>
-        <v>25.807142857142935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25.8071428571429</v>
+      </c>
+      <c r="C9" s="16">
+        <f>B9*$F$4</f>
+        <v>25807.142857142899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
-        <f t="shared" ref="A10:A38" si="1">A9+1</f>
-        <v>2026</v>
+        <f t="shared" ref="A10:A39" si="1">A9+1</f>
+        <v>9</v>
       </c>
       <c r="B10" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A10,B2:B9,A2:A9)</f>
-        <v>26.39392857142866</v>
-      </c>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26.393928571428575</v>
+      </c>
+      <c r="C10" s="16">
+        <f>B10*$F$4</f>
+        <v>26393.928571428576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
-        <v>2027</v>
+        <v>10</v>
       </c>
       <c r="B11" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A11,B2:B10,A2:A10)</f>
-        <v>26.980714285714384</v>
-      </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26.980714285714289</v>
+      </c>
+      <c r="C11" s="16">
+        <f>B11*$F$4</f>
+        <v>26980.71428571429</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
-        <v>2028</v>
+        <v>11</v>
       </c>
       <c r="B12" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A12,B2:B11,A2:A11)</f>
-        <v>27.567500000000109</v>
-      </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>27.567500000000006</v>
+      </c>
+      <c r="C12" s="16">
+        <f>B12*$F$4</f>
+        <v>27567.500000000007</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>2029</v>
+        <v>12</v>
       </c>
       <c r="B13" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A13,B2:B12,A2:A12)</f>
-        <v>28.154285714285834</v>
-      </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>28.15428571428572</v>
+      </c>
+      <c r="C13" s="16">
+        <f>B13*$F$4</f>
+        <v>28154.285714285721</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
-        <v>2030</v>
+        <v>13</v>
       </c>
       <c r="B14" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A14,B2:B13,A2:A13)</f>
-        <v>28.741071428571558</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>28.741071428571438</v>
+      </c>
+      <c r="C14" s="16">
+        <f>B14*$F$4</f>
+        <v>28741.071428571438</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
-        <v>2031</v>
+        <v>14</v>
       </c>
       <c r="B15" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A15,B2:B14,A2:A14)</f>
-        <v>29.327857142857283</v>
-      </c>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29.327857142857152</v>
+      </c>
+      <c r="C15" s="16">
+        <f>B15*$F$4</f>
+        <v>29327.857142857152</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
-        <v>2032</v>
+        <v>15</v>
       </c>
       <c r="B16" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A16,B2:B15,A2:A15)</f>
-        <v>29.914642857143008</v>
-      </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29.914642857142869</v>
+      </c>
+      <c r="C16" s="16">
+        <f>B16*$F$4</f>
+        <v>29914.64285714287</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
-        <v>2033</v>
+        <v>16</v>
       </c>
       <c r="B17" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A17,B2:B16,A2:A16)</f>
-        <v>30.501428571428733</v>
-      </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30.501428571428587</v>
+      </c>
+      <c r="C17" s="16">
+        <f>B17*$F$4</f>
+        <v>30501.428571428587</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
-        <v>2034</v>
+        <v>17</v>
       </c>
       <c r="B18" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A18,B2:B17,A2:A17)</f>
-        <v>31.088214285714457</v>
-      </c>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>31.088214285714301</v>
+      </c>
+      <c r="C18" s="16">
+        <f>B18*$F$4</f>
+        <v>31088.214285714301</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
-        <v>2035</v>
+        <v>18</v>
       </c>
       <c r="B19" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A19,B2:B18,A2:A18)</f>
-        <v>31.675000000000182</v>
-      </c>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>31.675000000000015</v>
+      </c>
+      <c r="C19" s="16">
+        <f>B19*$F$4</f>
+        <v>31675.000000000015</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
-        <v>2036</v>
+        <v>19</v>
       </c>
       <c r="B20" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A20,B2:B19,A2:A19)</f>
-        <v>32.261785714285907</v>
-      </c>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32.261785714285729</v>
+      </c>
+      <c r="C20" s="16">
+        <f>B20*$F$4</f>
+        <v>32261.785714285728</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>2037</v>
+        <v>20</v>
       </c>
       <c r="B21" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A21,B2:B20,A2:A20)</f>
-        <v>32.848571428571631</v>
-      </c>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32.848571428571447</v>
+      </c>
+      <c r="C21" s="16">
+        <f>B21*$F$4</f>
+        <v>32848.571428571449</v>
+      </c>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
-        <v>2038</v>
+        <v>21</v>
       </c>
       <c r="B22" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A22,B2:B21,A2:A21)</f>
-        <v>33.435357142857356</v>
-      </c>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>33.435357142857157</v>
+      </c>
+      <c r="C22" s="16">
+        <f>B22*$F$4</f>
+        <v>33435.357142857159</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
-        <v>2039</v>
+        <v>22</v>
       </c>
       <c r="B23" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A23,B2:B22,A2:A22)</f>
-        <v>34.022142857143081</v>
-      </c>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>34.022142857142875</v>
+      </c>
+      <c r="C23" s="16">
+        <f>B23*$F$4</f>
+        <v>34022.142857142877</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>23</v>
       </c>
       <c r="B24" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A24,B2:B23,A2:A23)</f>
-        <v>34.608928571428805</v>
-      </c>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>34.608928571428585</v>
+      </c>
+      <c r="C24" s="16">
+        <f>B24*$F$4</f>
+        <v>34608.928571428587</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <f t="shared" si="1"/>
-        <v>2041</v>
+        <v>24</v>
       </c>
       <c r="B25" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A25,B2:B24,A2:A24)</f>
-        <v>35.19571428571453</v>
-      </c>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>35.195714285714303</v>
+      </c>
+      <c r="C25" s="16">
+        <f>B25*$F$4</f>
+        <v>35195.714285714304</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <f t="shared" si="1"/>
-        <v>2042</v>
+        <v>25</v>
       </c>
       <c r="B26" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A26,B2:B25,A2:A25)</f>
-        <v>35.782500000000255</v>
-      </c>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>35.78250000000002</v>
+      </c>
+      <c r="C26" s="16">
+        <f>B26*$F$4</f>
+        <v>35782.500000000022</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <f t="shared" si="1"/>
-        <v>2043</v>
+        <v>26</v>
       </c>
       <c r="B27" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A27,B2:B26,A2:A26)</f>
-        <v>36.369285714285979</v>
-      </c>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36.369285714285738</v>
+      </c>
+      <c r="C27" s="16">
+        <f>B27*$F$4</f>
+        <v>36369.285714285739</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <f t="shared" si="1"/>
-        <v>2044</v>
+        <v>27</v>
       </c>
       <c r="B28" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A28,B2:B27,A2:A27)</f>
-        <v>36.956071428571704</v>
-      </c>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36.956071428571448</v>
+      </c>
+      <c r="C28" s="16">
+        <f>B28*$F$4</f>
+        <v>36956.071428571449</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
-        <v>2045</v>
+        <v>28</v>
       </c>
       <c r="B29" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A29,B2:B28,A2:A28)</f>
-        <v>37.542857142857429</v>
-      </c>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37.542857142857166</v>
+      </c>
+      <c r="C29" s="16">
+        <f>B29*$F$4</f>
+        <v>37542.857142857167</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
-        <v>2046</v>
+        <v>29</v>
       </c>
       <c r="B30" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A30,B2:B29,A2:A29)</f>
-        <v>38.129642857143153</v>
-      </c>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38.129642857142883</v>
+      </c>
+      <c r="C30" s="16">
+        <f>B30*$F$4</f>
+        <v>38129.642857142884</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <f t="shared" si="1"/>
-        <v>2047</v>
+        <v>30</v>
       </c>
       <c r="B31" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A31,B2:B30,A2:A30)</f>
-        <v>38.716428571428878</v>
-      </c>
-      <c r="C31" s="28"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38.716428571428594</v>
+      </c>
+      <c r="C31" s="16">
+        <f>B31*$F$4</f>
+        <v>38716.428571428594</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>31</v>
       </c>
       <c r="B32" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A32,B2:B31,A2:A31)</f>
-        <v>39.303214285714603</v>
-      </c>
-      <c r="C32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39.303214285714311</v>
+      </c>
+      <c r="C32" s="16">
+        <f>B32*$F$4</f>
+        <v>39303.214285714312</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <f t="shared" si="1"/>
-        <v>2049</v>
+        <v>32</v>
       </c>
       <c r="B33" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A33,B2:B32,A2:A32)</f>
-        <v>39.890000000000327</v>
-      </c>
-      <c r="C33" s="28"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39.890000000000029</v>
+      </c>
+      <c r="C33" s="16">
+        <f>B33*$F$4</f>
+        <v>39890.000000000029</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <f t="shared" si="1"/>
-        <v>2050</v>
+        <v>33</v>
       </c>
       <c r="B34" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A34,B2:B33,A2:A33)</f>
-        <v>40.476785714286052</v>
-      </c>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40.476785714285739</v>
+      </c>
+      <c r="C34" s="16">
+        <f>B34*$F$4</f>
+        <v>40476.785714285739</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <f t="shared" si="1"/>
-        <v>2051</v>
+        <v>34</v>
       </c>
       <c r="B35" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A35,B2:B34,A2:A34)</f>
-        <v>41.063571428571777</v>
-      </c>
-      <c r="C35" s="28"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41.063571428571457</v>
+      </c>
+      <c r="C35" s="16">
+        <f>B35*$F$4</f>
+        <v>41063.571428571457</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
-        <v>2052</v>
+        <v>35</v>
       </c>
       <c r="B36" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A36,B2:B35,A2:A35)</f>
-        <v>41.650357142857501</v>
-      </c>
-      <c r="C36" s="28"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41.650357142857175</v>
+      </c>
+      <c r="C36" s="16">
+        <f>B36*$F$4</f>
+        <v>41650.357142857174</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
-        <v>2053</v>
+        <v>36</v>
       </c>
       <c r="B37" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A37,B2:B36,A2:A36)</f>
-        <v>42.237142857143226</v>
-      </c>
-      <c r="C37" s="28"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>42.237142857142892</v>
+      </c>
+      <c r="C37" s="16">
+        <f>B37*$F$4</f>
+        <v>42237.142857142891</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
-        <v>2054</v>
+        <v>37</v>
       </c>
       <c r="B38" s="28">
-        <f>_xlfn.FORECAST.LINEAR(A38,B2:B37,A2:A37)</f>
-        <v>42.823928571428951</v>
-      </c>
-      <c r="C38" s="28"/>
+        <v>42.82392857142861</v>
+      </c>
+      <c r="C38" s="16">
+        <f>B38*$F$4</f>
+        <v>42823.928571428609</v>
+      </c>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28">
+        <v>43.425212018140627</v>
+      </c>
+      <c r="C39" s="16">
+        <f>B39*$F$4</f>
+        <v>43425.212018140628</v>
+      </c>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F41" s="28"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="rateShowYear" xr:uid="{B455EAEE-D674-469A-8A27-EDB84056B1C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5750,12 +6618,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="25">
         <v>0.04</v>
@@ -5763,7 +6631,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>8100000000</v>
@@ -5771,7 +6639,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>762120000</v>
@@ -5779,7 +6647,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="26">
         <v>450000</v>
@@ -5787,7 +6655,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>30</v>
@@ -5795,7 +6663,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="27">
         <f>PV(B3,B7,-B5)</f>
@@ -5804,7 +6672,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="27">
         <f>B10+B4</f>
@@ -5813,7 +6681,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="27">
         <f>B11/(B6*B7)</f>

--- a/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
+++ b/Lønnsomhetsvurdering elektrifisering Troll B og C.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3514" documentId="8_{2FC1E637-CA46-467F-9B3F-FB51F5D074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845AA4E7-AB81-4B7B-8093-21404AA04BD7}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="3218" windowWidth="17280" windowHeight="9982" firstSheet="1" activeTab="3" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="3" activeTab="5" xr2:uid="{F8D5ABEA-5093-421A-9348-231DEE92C530}"/>
   </bookViews>
   <sheets>
     <sheet name="Elektrifisering NNV" sheetId="1" r:id="rId1"/>
@@ -1408,10 +1408,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -1731,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4F3DA7-FE76-4FF3-BFD4-2A5423F54C1B}">
   <dimension ref="A1:AH70"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A6" zoomScale="64" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6450,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66269A21-A848-42A9-8F74-BAC8A0ED050A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6814,8 +6810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DC21E-058F-482D-A8A2-6B9883F2C100}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7157,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1340C5A-D788-48D6-966D-0B37E9AC30CF}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
